--- a/Filtered_By_Region/Region IX/Region IX_NEWCON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_NEWCON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS204"/>
+  <dimension ref="A1:AT204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +664,11 @@
           <t>Project Allocation (original)</t>
         </is>
       </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -715,8 +721,6 @@
       <c r="L2" t="n">
         <v>2000214.191356</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -725,17 +729,6 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -772,12 +765,6 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -830,8 +817,6 @@
       <c r="L3" t="n">
         <v>2668064.917224375</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -840,17 +825,6 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -887,12 +861,6 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -945,8 +913,6 @@
       <c r="L4" t="n">
         <v>17070000</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -955,17 +921,6 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1002,12 +957,6 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1060,8 +1009,6 @@
       <c r="L5" t="n">
         <v>1128000</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1070,17 +1017,6 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1117,12 +1053,6 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1175,8 +1105,6 @@
       <c r="L6" t="n">
         <v>17070000</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1185,17 +1113,6 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1232,12 +1149,6 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,8 +1201,6 @@
       <c r="L7" t="n">
         <v>28350000</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1300,17 +1209,6 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1347,12 +1245,6 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1386,7 +1278,6 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>6</v>
       </c>
@@ -1403,8 +1294,6 @@
       <c r="L8" t="n">
         <v>11503844.661</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1413,17 +1302,6 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1460,12 +1338,6 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1499,7 +1371,6 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>9</v>
       </c>
@@ -1516,8 +1387,6 @@
       <c r="L9" t="n">
         <v>16708460.712</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1526,17 +1395,6 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1573,12 +1431,6 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1612,7 +1464,6 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>15</v>
       </c>
@@ -1629,8 +1480,6 @@
       <c r="L10" t="n">
         <v>21300000</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1639,17 +1488,6 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -1686,12 +1524,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1744,8 +1576,6 @@
       <c r="L11" t="n">
         <v>14133441.1023385</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1754,17 +1584,6 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -1801,12 +1620,6 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1859,8 +1672,6 @@
       <c r="L12" t="n">
         <v>14138441.1023385</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1869,17 +1680,6 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -1916,12 +1716,6 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1974,8 +1768,6 @@
       <c r="L13" t="n">
         <v>2668064.917224375</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1984,17 +1776,6 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2031,12 +1812,6 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2089,8 +1864,6 @@
       <c r="L14" t="n">
         <v>11141570</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2099,8 +1872,6 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>P00072438MN - CW1</t>
@@ -2141,7 +1912,6 @@
           <t>Dipolog Top Construction &amp; Devt. Corp.</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2178,12 +1948,6 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2236,8 +2000,6 @@
       <c r="L15" t="n">
         <v>2788710</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2246,8 +2008,6 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>P00072634MN - CW1</t>
@@ -2288,7 +2048,6 @@
           <t>Dipolog Top Construction &amp; Devt. Corp.</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2325,12 +2084,6 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2383,8 +2136,6 @@
       <c r="L16" t="n">
         <v>6545000</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2393,25 +2144,16 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>June 22, 2017</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2448,12 +2190,6 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2506,8 +2242,6 @@
       <c r="L17" t="n">
         <v>22283140</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2516,8 +2250,6 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>P00071085MN - CW1</t>
@@ -2558,7 +2290,6 @@
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -2595,12 +2326,6 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2653,8 +2378,6 @@
       <c r="L18" t="n">
         <v>18267268.79</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2663,25 +2386,16 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
           <t>June 22, 2017</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -2718,12 +2432,6 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2776,8 +2484,6 @@
       <c r="L19" t="n">
         <v>6545000</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2786,8 +2492,6 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>P00072439MN - CW1</t>
@@ -2828,7 +2532,6 @@
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
@@ -2865,12 +2568,6 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2923,8 +2620,6 @@
       <c r="L20" t="n">
         <v>2788710</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2933,8 +2628,6 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>P00072635MN - CW1</t>
@@ -2975,7 +2668,6 @@
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3012,12 +2704,6 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3070,8 +2756,6 @@
       <c r="L21" t="n">
         <v>6535000</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3080,8 +2764,6 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>P00072440MN - CW1</t>
@@ -3122,7 +2804,6 @@
           <t>Rudhil Construction &amp; Enterprises, Inc.</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3159,12 +2840,6 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3217,8 +2892,6 @@
       <c r="L22" t="n">
         <v>192423168</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3227,8 +2900,6 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>P00073354MN - CW1</t>
@@ -3269,7 +2940,6 @@
           <t>Vicente T. Lao Construction</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -3306,12 +2976,6 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3364,8 +3028,6 @@
       <c r="L23" t="n">
         <v>2658700</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3374,8 +3036,6 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>P00074474MN - CW1</t>
@@ -3416,7 +3076,6 @@
           <t>Dipolog Top Construction &amp; Devt. Corp.</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
@@ -3453,12 +3112,6 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3511,8 +3164,6 @@
       <c r="L24" t="n">
         <v>3971375.232511</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3521,17 +3172,6 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
@@ -3568,12 +3208,6 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3607,7 +3241,6 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>3</v>
       </c>
@@ -3624,8 +3257,6 @@
       <c r="L25" t="n">
         <v>3024910.936388999</v>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3634,17 +3265,6 @@
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
@@ -3681,12 +3301,6 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3739,8 +3353,6 @@
       <c r="L26" t="n">
         <v>2056214.191356</v>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3749,17 +3361,6 @@
       <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
@@ -3796,12 +3397,6 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3854,8 +3449,6 @@
       <c r="L27" t="n">
         <v>103794537.891</v>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3864,16 +3457,6 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr">
         <is>
           <t>With approved additional funds</t>
@@ -3915,12 +3498,6 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3954,7 +3531,6 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>10</v>
       </c>
@@ -3971,8 +3547,6 @@
       <c r="L28" t="n">
         <v>14233441.1023385</v>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3981,17 +3555,6 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
@@ -4028,12 +3591,6 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4086,8 +3643,6 @@
       <c r="L29" t="n">
         <v>25334895.15303</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4096,17 +3651,6 @@
       <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
@@ -4143,12 +3687,6 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4201,8 +3739,6 @@
       <c r="L30" t="n">
         <v>2994910.936388999</v>
       </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4211,17 +3747,6 @@
       <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
@@ -4258,12 +3783,6 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4316,8 +3835,6 @@
       <c r="L31" t="n">
         <v>6270000</v>
       </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4326,17 +3843,6 @@
       <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
@@ -4373,12 +3879,6 @@
       <c r="AM31" t="n">
         <v>0</v>
       </c>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4431,8 +3931,6 @@
       <c r="L32" t="n">
         <v>2076214.191356</v>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4441,17 +3939,6 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
@@ -4488,12 +3975,6 @@
       <c r="AM32" t="n">
         <v>0</v>
       </c>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4546,8 +4027,6 @@
       <c r="L33" t="n">
         <v>18690000</v>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4556,17 +4035,6 @@
       <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
@@ -4603,12 +4071,6 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4642,7 +4104,6 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4120,6 @@
       <c r="L34" t="n">
         <v>1133254.619708</v>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4669,17 +4128,6 @@
       <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
@@ -4716,12 +4164,6 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4774,8 +4216,6 @@
       <c r="L35" t="n">
         <v>2705618.235294118</v>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4784,17 +4224,6 @@
       <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
@@ -4831,12 +4260,6 @@
       <c r="AM35" t="n">
         <v>0</v>
       </c>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4889,8 +4312,6 @@
       <c r="L36" t="n">
         <v>6230000</v>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4899,17 +4320,6 @@
       <c r="P36" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
@@ -4946,12 +4356,6 @@
       <c r="AM36" t="n">
         <v>0</v>
       </c>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4985,7 +4389,6 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +4405,6 @@
       <c r="L37" t="n">
         <v>1133254.619708</v>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5012,17 +4413,6 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
         <v>0</v>
       </c>
@@ -5059,12 +4449,6 @@
       <c r="AM37" t="n">
         <v>0</v>
       </c>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5117,8 +4501,6 @@
       <c r="L38" t="n">
         <v>2964910.936388999</v>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5127,17 +4509,6 @@
       <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
         <v>0</v>
       </c>
@@ -5174,12 +4545,6 @@
       <c r="AM38" t="n">
         <v>0</v>
       </c>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5232,8 +4597,6 @@
       <c r="L39" t="n">
         <v>2036214.191356</v>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5242,17 +4605,6 @@
       <c r="P39" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
@@ -5289,12 +4641,6 @@
       <c r="AM39" t="n">
         <v>0</v>
       </c>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5347,8 +4693,6 @@
       <c r="L40" t="n">
         <v>3931375.232511</v>
       </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5357,17 +4701,6 @@
       <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
@@ -5404,12 +4737,6 @@
       <c r="AM40" t="n">
         <v>0</v>
       </c>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5443,7 +4770,6 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>2</v>
       </c>
@@ -5460,8 +4786,6 @@
       <c r="L41" t="n">
         <v>2036214.191356</v>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5470,17 +4794,6 @@
       <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="n">
         <v>0</v>
       </c>
@@ -5517,12 +4830,6 @@
       <c r="AM41" t="n">
         <v>0</v>
       </c>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5575,8 +4882,6 @@
       <c r="L42" t="n">
         <v>2752536.470588235</v>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5585,17 +4890,6 @@
       <c r="P42" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
         <v>0</v>
       </c>
@@ -5632,12 +4926,6 @@
       <c r="AM42" t="n">
         <v>0</v>
       </c>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5690,8 +4978,6 @@
       <c r="L43" t="n">
         <v>18762923.11</v>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5700,17 +4986,6 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
         <v>0</v>
       </c>
@@ -5747,12 +5022,6 @@
       <c r="AM43" t="n">
         <v>0</v>
       </c>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5805,8 +5074,6 @@
       <c r="L44" t="n">
         <v>2056214.191356</v>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5815,17 +5082,6 @@
       <c r="P44" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
@@ -5862,12 +5118,6 @@
       <c r="AM44" t="n">
         <v>0</v>
       </c>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5920,8 +5170,6 @@
       <c r="L45" t="n">
         <v>2964910.936388999</v>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5930,17 +5178,6 @@
       <c r="P45" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
@@ -5977,12 +5214,6 @@
       <c r="AM45" t="n">
         <v>0</v>
       </c>
-      <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6035,8 +5266,6 @@
       <c r="L46" t="n">
         <v>2964910.936388999</v>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6045,17 +5274,6 @@
       <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="n">
         <v>0</v>
       </c>
@@ -6092,12 +5310,6 @@
       <c r="AM46" t="n">
         <v>0</v>
       </c>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6150,8 +5362,6 @@
       <c r="L47" t="n">
         <v>6386012.64</v>
       </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6160,17 +5370,6 @@
       <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
         <v>0</v>
       </c>
@@ -6207,12 +5406,6 @@
       <c r="AM47" t="n">
         <v>0</v>
       </c>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6265,8 +5458,6 @@
       <c r="L48" t="n">
         <v>2636730</v>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6275,17 +5466,6 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
         <v>0</v>
       </c>
@@ -6322,12 +5502,6 @@
       <c r="AM48" t="n">
         <v>0</v>
       </c>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6380,8 +5554,6 @@
       <c r="L49" t="n">
         <v>26482375</v>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6390,17 +5562,6 @@
       <c r="P49" t="n">
         <v>1</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
         <v>0</v>
       </c>
@@ -6437,12 +5598,6 @@
       <c r="AM49" t="n">
         <v>0</v>
       </c>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6495,8 +5650,6 @@
       <c r="L50" t="n">
         <v>2612200</v>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6505,17 +5658,6 @@
       <c r="P50" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
         <v>0</v>
       </c>
@@ -6552,12 +5694,6 @@
       <c r="AM50" t="n">
         <v>0</v>
       </c>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6610,8 +5746,6 @@
       <c r="L51" t="n">
         <v>22655968.62</v>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6620,17 +5754,6 @@
       <c r="P51" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
@@ -6667,12 +5790,6 @@
       <c r="AM51" t="n">
         <v>0</v>
       </c>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6725,8 +5842,6 @@
       <c r="L52" t="n">
         <v>2612125</v>
       </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6735,17 +5850,6 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
@@ -6782,12 +5886,6 @@
       <c r="AM52" t="n">
         <v>0</v>
       </c>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6840,8 +5938,6 @@
       <c r="L53" t="n">
         <v>17199085.712</v>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6850,17 +5946,6 @@
       <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
         <v>0</v>
       </c>
@@ -6897,12 +5982,6 @@
       <c r="AM53" t="n">
         <v>0</v>
       </c>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6955,8 +6034,6 @@
       <c r="L54" t="n">
         <v>71865115.91787724</v>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6965,17 +6042,6 @@
       <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
@@ -7012,12 +6078,6 @@
       <c r="AM54" t="n">
         <v>0</v>
       </c>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7070,8 +6130,6 @@
       <c r="L55" t="n">
         <v>28475000</v>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7080,17 +6138,6 @@
       <c r="P55" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
         <v>0</v>
       </c>
@@ -7127,12 +6174,6 @@
       <c r="AM55" t="n">
         <v>0</v>
       </c>
-      <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7185,8 +6226,6 @@
       <c r="L56" t="n">
         <v>32402890</v>
       </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7195,17 +6234,6 @@
       <c r="P56" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
         <v>0</v>
       </c>
@@ -7242,12 +6270,6 @@
       <c r="AM56" t="n">
         <v>0</v>
       </c>
-      <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7281,7 +6303,6 @@
       <c r="G57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>24</v>
       </c>
@@ -7298,8 +6319,6 @@
       <c r="L57" t="n">
         <v>36296257</v>
       </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7308,17 +6327,6 @@
       <c r="P57" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
         <v>0</v>
       </c>
@@ -7355,12 +6363,6 @@
       <c r="AM57" t="n">
         <v>0</v>
       </c>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7413,8 +6415,6 @@
       <c r="L58" t="n">
         <v>31752891</v>
       </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7423,17 +6423,6 @@
       <c r="P58" t="n">
         <v>1</v>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
         <v>0</v>
       </c>
@@ -7470,12 +6459,6 @@
       <c r="AM58" t="n">
         <v>0</v>
       </c>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7528,8 +6511,6 @@
       <c r="L59" t="n">
         <v>62905782</v>
       </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7538,17 +6519,6 @@
       <c r="P59" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
@@ -7585,12 +6555,6 @@
       <c r="AM59" t="n">
         <v>0</v>
       </c>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7624,7 +6588,6 @@
       <c r="G60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>15</v>
       </c>
@@ -7641,8 +6604,6 @@
       <c r="L60" t="n">
         <v>21740665.56</v>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7651,17 +6612,6 @@
       <c r="P60" t="n">
         <v>1</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
         <v>0</v>
       </c>
@@ -7698,12 +6648,6 @@
       <c r="AM60" t="n">
         <v>0</v>
       </c>
-      <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7721,7 +6665,6 @@
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">Labuan Cs 2Sty4Cl To Sinunuc Es </t>
@@ -7735,17 +6678,11 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>BATCH 3 CL</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
           <t>Reverted</t>
@@ -7754,17 +6691,6 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
         <v>1</v>
       </c>
@@ -7801,12 +6727,6 @@
       <c r="AM61" t="n">
         <v>0</v>
       </c>
-      <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7859,8 +6779,6 @@
       <c r="L62" t="n">
         <v>29857716.362</v>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7869,17 +6787,6 @@
       <c r="P62" t="n">
         <v>1</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
         <v>0</v>
       </c>
@@ -7916,12 +6823,6 @@
       <c r="AM62" t="n">
         <v>0</v>
       </c>
-      <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7974,8 +6875,6 @@
       <c r="L63" t="n">
         <v>24852577.982</v>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7984,17 +6883,6 @@
       <c r="P63" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
         <v>0</v>
       </c>
@@ -8031,12 +6919,6 @@
       <c r="AM63" t="n">
         <v>0</v>
       </c>
-      <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8089,8 +6971,6 @@
       <c r="L64" t="n">
         <v>15471328</v>
       </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8099,17 +6979,6 @@
       <c r="P64" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
         <v>0</v>
       </c>
@@ -8146,12 +7015,6 @@
       <c r="AM64" t="n">
         <v>0</v>
       </c>
-      <c r="AN64" t="inlineStr"/>
-      <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8204,8 +7067,6 @@
       <c r="L65" t="n">
         <v>15571328</v>
       </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8214,17 +7075,6 @@
       <c r="P65" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
         <v>0</v>
       </c>
@@ -8261,12 +7111,6 @@
       <c r="AM65" t="n">
         <v>0</v>
       </c>
-      <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8319,8 +7163,6 @@
       <c r="L66" t="n">
         <v>36546257</v>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8329,17 +7171,6 @@
       <c r="P66" t="n">
         <v>1</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
         <v>0</v>
       </c>
@@ -8376,12 +7207,6 @@
       <c r="AM66" t="n">
         <v>0</v>
       </c>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8434,8 +7259,6 @@
       <c r="L67" t="n">
         <v>8564965</v>
       </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8444,17 +7267,6 @@
       <c r="P67" t="n">
         <v>1</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
         <v>0</v>
       </c>
@@ -8491,12 +7303,6 @@
       <c r="AM67" t="n">
         <v>0</v>
       </c>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8549,8 +7355,6 @@
       <c r="L68" t="n">
         <v>15571328</v>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8559,17 +7363,6 @@
       <c r="P68" t="n">
         <v>1</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
         <v>0</v>
       </c>
@@ -8606,12 +7399,6 @@
       <c r="AM68" t="n">
         <v>0</v>
       </c>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8664,8 +7451,6 @@
       <c r="L69" t="n">
         <v>18422269</v>
       </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8674,17 +7459,6 @@
       <c r="P69" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
         <v>0</v>
       </c>
@@ -8721,12 +7495,6 @@
       <c r="AM69" t="n">
         <v>0</v>
       </c>
-      <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8779,8 +7547,6 @@
       <c r="L70" t="n">
         <v>11843844.661</v>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8789,17 +7555,6 @@
       <c r="P70" t="n">
         <v>1</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
         <v>0</v>
       </c>
@@ -8836,12 +7591,6 @@
       <c r="AM70" t="n">
         <v>0</v>
       </c>
-      <c r="AN70" t="inlineStr"/>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8894,8 +7643,6 @@
       <c r="L71" t="n">
         <v>6619338</v>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8904,17 +7651,6 @@
       <c r="P71" t="n">
         <v>1</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
         <v>0</v>
       </c>
@@ -8951,12 +7687,6 @@
       <c r="AM71" t="n">
         <v>0</v>
       </c>
-      <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9009,8 +7739,6 @@
       <c r="L72" t="n">
         <v>22020000</v>
       </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9019,17 +7747,6 @@
       <c r="P72" t="n">
         <v>1</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
@@ -9066,12 +7783,6 @@
       <c r="AM72" t="n">
         <v>0</v>
       </c>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9105,7 +7816,6 @@
       <c r="G73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>6</v>
       </c>
@@ -9122,8 +7832,6 @@
       <c r="L73" t="n">
         <v>8296000</v>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9132,17 +7840,6 @@
       <c r="P73" t="n">
         <v>1</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="n">
         <v>0</v>
       </c>
@@ -9179,12 +7876,6 @@
       <c r="AM73" t="n">
         <v>0</v>
       </c>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9237,8 +7928,6 @@
       <c r="L74" t="n">
         <v>2489510</v>
       </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9247,17 +7936,6 @@
       <c r="P74" t="n">
         <v>1</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
         <v>0</v>
       </c>
@@ -9294,12 +7972,6 @@
       <c r="AM74" t="n">
         <v>0</v>
       </c>
-      <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9352,8 +8024,6 @@
       <c r="L75" t="n">
         <v>33005000</v>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9362,17 +8032,6 @@
       <c r="P75" t="n">
         <v>1</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
         <v>0</v>
       </c>
@@ -9409,12 +8068,6 @@
       <c r="AM75" t="n">
         <v>0</v>
       </c>
-      <c r="AN75" t="inlineStr"/>
-      <c r="AO75" t="inlineStr"/>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9467,8 +8120,6 @@
       <c r="L76" t="n">
         <v>2489510</v>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9477,17 +8128,6 @@
       <c r="P76" t="n">
         <v>1</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
         <v>0</v>
       </c>
@@ -9524,12 +8164,6 @@
       <c r="AM76" t="n">
         <v>0</v>
       </c>
-      <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9582,8 +8216,6 @@
       <c r="L77" t="n">
         <v>31152890.27</v>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9592,17 +8224,6 @@
       <c r="P77" t="n">
         <v>1</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="n">
         <v>0</v>
       </c>
@@ -9639,12 +8260,6 @@
       <c r="AM77" t="n">
         <v>0</v>
       </c>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9697,8 +8312,6 @@
       <c r="L78" t="n">
         <v>21423013.45</v>
       </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9707,17 +8320,6 @@
       <c r="P78" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
         <v>0</v>
       </c>
@@ -9754,12 +8356,6 @@
       <c r="AM78" t="n">
         <v>0</v>
       </c>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9793,7 +8389,6 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>12</v>
       </c>
@@ -9810,8 +8405,6 @@
       <c r="L79" t="n">
         <v>18262268.79</v>
       </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9820,17 +8413,6 @@
       <c r="P79" t="n">
         <v>1</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
         <v>0</v>
       </c>
@@ -9867,12 +8449,6 @@
       <c r="AM79" t="n">
         <v>0</v>
       </c>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9925,8 +8501,6 @@
       <c r="L80" t="n">
         <v>2489510</v>
       </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9935,17 +8509,6 @@
       <c r="P80" t="n">
         <v>1</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
         <v>0</v>
       </c>
@@ -9982,12 +8545,6 @@
       <c r="AM80" t="n">
         <v>0</v>
       </c>
-      <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="inlineStr"/>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10040,8 +8597,6 @@
       <c r="L81" t="n">
         <v>62230780.54</v>
       </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10050,17 +8605,6 @@
       <c r="P81" t="n">
         <v>1</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
         <v>0</v>
       </c>
@@ -10097,12 +8641,6 @@
       <c r="AM81" t="n">
         <v>0</v>
       </c>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10155,8 +8693,6 @@
       <c r="L82" t="n">
         <v>54716806.37</v>
       </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10165,17 +8701,6 @@
       <c r="P82" t="n">
         <v>1</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
         <v>0</v>
       </c>
@@ -10212,12 +8737,6 @@
       <c r="AM82" t="n">
         <v>0</v>
       </c>
-      <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr"/>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10270,8 +8789,6 @@
       <c r="L83" t="n">
         <v>9958040</v>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10280,17 +8797,6 @@
       <c r="P83" t="n">
         <v>1</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
         <v>0</v>
       </c>
@@ -10327,12 +8833,6 @@
       <c r="AM83" t="n">
         <v>0</v>
       </c>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10385,8 +8885,6 @@
       <c r="L84" t="n">
         <v>68471358.594</v>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10395,17 +8893,6 @@
       <c r="P84" t="n">
         <v>1</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
         <v>0</v>
       </c>
@@ -10442,12 +8929,6 @@
       <c r="AM84" t="n">
         <v>0</v>
       </c>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10500,8 +8981,6 @@
       <c r="L85" t="n">
         <v>21433013.45</v>
       </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10510,17 +8989,6 @@
       <c r="P85" t="n">
         <v>1</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
         <v>0</v>
       </c>
@@ -10557,12 +9025,6 @@
       <c r="AM85" t="n">
         <v>0</v>
       </c>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10615,8 +9077,6 @@
       <c r="L86" t="n">
         <v>2489510</v>
       </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10625,17 +9085,6 @@
       <c r="P86" t="n">
         <v>1</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
         <v>0</v>
       </c>
@@ -10672,12 +9121,6 @@
       <c r="AM86" t="n">
         <v>0</v>
       </c>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10730,8 +9173,6 @@
       <c r="L87" t="n">
         <v>64199040.34999999</v>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10740,17 +9181,6 @@
       <c r="P87" t="n">
         <v>1</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
         <v>0</v>
       </c>
@@ -10787,12 +9217,6 @@
       <c r="AM87" t="n">
         <v>0</v>
       </c>
-      <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10845,8 +9269,6 @@
       <c r="L88" t="n">
         <v>2489510</v>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10855,17 +9277,6 @@
       <c r="P88" t="n">
         <v>1</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
         <v>0</v>
       </c>
@@ -10902,12 +9313,6 @@
       <c r="AM88" t="n">
         <v>0</v>
       </c>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10960,8 +9365,6 @@
       <c r="L89" t="n">
         <v>2771079.006692498</v>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10970,17 +9373,6 @@
       <c r="P89" t="n">
         <v>1</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
         <v>0</v>
       </c>
@@ -11017,12 +9409,6 @@
       <c r="AM89" t="n">
         <v>0</v>
       </c>
-      <c r="AN89" t="inlineStr"/>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11075,8 +9461,6 @@
       <c r="L90" t="n">
         <v>62255780.54</v>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11085,17 +9469,6 @@
       <c r="P90" t="n">
         <v>1</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
         <v>0</v>
       </c>
@@ -11132,12 +9505,6 @@
       <c r="AM90" t="n">
         <v>0</v>
       </c>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11190,8 +9557,6 @@
       <c r="L91" t="n">
         <v>4979020</v>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11200,17 +9565,6 @@
       <c r="P91" t="n">
         <v>1</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="n">
         <v>0</v>
       </c>
@@ -11247,12 +9601,6 @@
       <c r="AM91" t="n">
         <v>0</v>
       </c>
-      <c r="AN91" t="inlineStr"/>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11305,8 +9653,6 @@
       <c r="L92" t="n">
         <v>51642000</v>
       </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
           <t>Terminated</t>
@@ -11315,16 +9661,6 @@
       <c r="P92" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
           <t>MUTUAL AND PARTIAL TERMINATION (Only 50% of the contract was terminated, instead of 4 units of  2 storey 10 classroom only 2 units was implemented due to no buildable space to construct the remaining units)</t>
@@ -11366,12 +9702,6 @@
       <c r="AM92" t="n">
         <v>40</v>
       </c>
-      <c r="AN92" t="inlineStr"/>
-      <c r="AO92" t="inlineStr"/>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11424,8 +9754,6 @@
       <c r="L93" t="n">
         <v>2489510</v>
       </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11434,17 +9762,6 @@
       <c r="P93" t="n">
         <v>1</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
         <v>0</v>
       </c>
@@ -11481,12 +9798,6 @@
       <c r="AM93" t="n">
         <v>0</v>
       </c>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11539,8 +9850,6 @@
       <c r="L94" t="n">
         <v>36494537.58</v>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11549,17 +9858,6 @@
       <c r="P94" t="n">
         <v>1</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
         <v>0</v>
       </c>
@@ -11596,12 +9894,6 @@
       <c r="AM94" t="n">
         <v>0</v>
       </c>
-      <c r="AN94" t="inlineStr"/>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11654,8 +9946,6 @@
       <c r="L95" t="n">
         <v>43990000</v>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11664,17 +9954,6 @@
       <c r="P95" t="n">
         <v>1</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
         <v>0</v>
       </c>
@@ -11711,12 +9990,6 @@
       <c r="AM95" t="n">
         <v>0</v>
       </c>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11769,8 +10042,6 @@
       <c r="L96" t="n">
         <v>2489510</v>
       </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11779,17 +10050,6 @@
       <c r="P96" t="n">
         <v>1</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
         <v>0</v>
       </c>
@@ -11826,12 +10086,6 @@
       <c r="AM96" t="n">
         <v>0</v>
       </c>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11884,8 +10138,6 @@
       <c r="L97" t="n">
         <v>22020000</v>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11894,17 +10146,6 @@
       <c r="P97" t="n">
         <v>1</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="n">
         <v>0</v>
       </c>
@@ -11941,12 +10182,6 @@
       <c r="AM97" t="n">
         <v>0</v>
       </c>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11980,7 +10215,6 @@
       <c r="G98" t="n">
         <v>3</v>
       </c>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>6</v>
       </c>
@@ -11997,8 +10231,6 @@
       <c r="L98" t="n">
         <v>8296000</v>
       </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12007,17 +10239,6 @@
       <c r="P98" t="n">
         <v>1</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="n">
         <v>0</v>
       </c>
@@ -12054,12 +10275,6 @@
       <c r="AM98" t="n">
         <v>0</v>
       </c>
-      <c r="AN98" t="inlineStr"/>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12112,8 +10327,6 @@
       <c r="L99" t="n">
         <v>2489510</v>
       </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12122,17 +10335,6 @@
       <c r="P99" t="n">
         <v>1</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
         <v>0</v>
       </c>
@@ -12169,12 +10371,6 @@
       <c r="AM99" t="n">
         <v>0</v>
       </c>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12227,8 +10423,6 @@
       <c r="L100" t="n">
         <v>2771079.006692498</v>
       </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12237,17 +10431,6 @@
       <c r="P100" t="n">
         <v>1</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
         <v>0</v>
       </c>
@@ -12284,12 +10467,6 @@
       <c r="AM100" t="n">
         <v>0</v>
       </c>
-      <c r="AN100" t="inlineStr"/>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12342,8 +10519,6 @@
       <c r="L101" t="n">
         <v>13018000</v>
       </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12352,17 +10527,6 @@
       <c r="P101" t="n">
         <v>1</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
         <v>0</v>
       </c>
@@ -12399,12 +10563,6 @@
       <c r="AM101" t="n">
         <v>0</v>
       </c>
-      <c r="AN101" t="inlineStr"/>
-      <c r="AO101" t="inlineStr"/>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12457,8 +10615,6 @@
       <c r="L102" t="n">
         <v>48433129.59</v>
       </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12467,17 +10623,6 @@
       <c r="P102" t="n">
         <v>1</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="n">
         <v>0</v>
       </c>
@@ -12514,12 +10659,6 @@
       <c r="AM102" t="n">
         <v>0</v>
       </c>
-      <c r="AN102" t="inlineStr"/>
-      <c r="AO102" t="inlineStr"/>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12572,8 +10711,6 @@
       <c r="L103" t="n">
         <v>2624700</v>
       </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12582,17 +10719,6 @@
       <c r="P103" t="n">
         <v>1</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="n">
         <v>0</v>
       </c>
@@ -12629,12 +10755,6 @@
       <c r="AM103" t="n">
         <v>0</v>
       </c>
-      <c r="AN103" t="inlineStr"/>
-      <c r="AO103" t="inlineStr"/>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12687,8 +10807,6 @@
       <c r="L104" t="n">
         <v>13617375</v>
       </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12697,17 +10815,6 @@
       <c r="P104" t="n">
         <v>1</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="n">
         <v>0</v>
       </c>
@@ -12744,12 +10851,6 @@
       <c r="AM104" t="n">
         <v>0</v>
       </c>
-      <c r="AN104" t="inlineStr"/>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12802,8 +10903,6 @@
       <c r="L105" t="n">
         <v>5252750</v>
       </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12812,17 +10911,6 @@
       <c r="P105" t="n">
         <v>1</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="n">
         <v>0</v>
       </c>
@@ -12859,12 +10947,6 @@
       <c r="AM105" t="n">
         <v>0</v>
       </c>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12917,8 +10999,6 @@
       <c r="L106" t="n">
         <v>2624700</v>
       </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12927,17 +11007,6 @@
       <c r="P106" t="n">
         <v>1</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="n">
         <v>0</v>
       </c>
@@ -12974,12 +11043,6 @@
       <c r="AM106" t="n">
         <v>0</v>
       </c>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13032,8 +11095,6 @@
       <c r="L107" t="n">
         <v>61684484.25435</v>
       </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13042,17 +11103,6 @@
       <c r="P107" t="n">
         <v>1</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="n">
         <v>0</v>
       </c>
@@ -13089,12 +11139,6 @@
       <c r="AM107" t="n">
         <v>0</v>
       </c>
-      <c r="AN107" t="inlineStr"/>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13128,7 +11172,6 @@
       <c r="G108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>4</v>
       </c>
@@ -13145,8 +11188,6 @@
       <c r="L108" t="n">
         <v>6804875</v>
       </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13155,17 +11196,6 @@
       <c r="P108" t="n">
         <v>1</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
         <v>0</v>
       </c>
@@ -13202,12 +11232,6 @@
       <c r="AM108" t="n">
         <v>0</v>
       </c>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13260,8 +11284,6 @@
       <c r="L109" t="n">
         <v>2701200</v>
       </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13270,17 +11292,6 @@
       <c r="P109" t="n">
         <v>1</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
         <v>0</v>
       </c>
@@ -13317,12 +11328,6 @@
       <c r="AM109" t="n">
         <v>0</v>
       </c>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13375,8 +11380,6 @@
       <c r="L110" t="n">
         <v>16797750</v>
       </c>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13385,17 +11388,6 @@
       <c r="P110" t="n">
         <v>1</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
         <v>0</v>
       </c>
@@ -13432,12 +11424,6 @@
       <c r="AM110" t="n">
         <v>0</v>
       </c>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13490,8 +11476,6 @@
       <c r="L111" t="n">
         <v>2624700</v>
       </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13500,17 +11484,6 @@
       <c r="P111" t="n">
         <v>1</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
         <v>0</v>
       </c>
@@ -13547,12 +11520,6 @@
       <c r="AM111" t="n">
         <v>0</v>
       </c>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13605,8 +11572,6 @@
       <c r="L112" t="n">
         <v>33604750</v>
       </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13615,17 +11580,6 @@
       <c r="P112" t="n">
         <v>1</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="n">
         <v>0</v>
       </c>
@@ -13662,12 +11616,6 @@
       <c r="AM112" t="n">
         <v>0</v>
       </c>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13720,8 +11668,6 @@
       <c r="L113" t="n">
         <v>5352000</v>
       </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13730,17 +11676,6 @@
       <c r="P113" t="n">
         <v>1</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
         <v>0</v>
       </c>
@@ -13777,12 +11712,6 @@
       <c r="AM113" t="n">
         <v>0</v>
       </c>
-      <c r="AN113" t="inlineStr"/>
-      <c r="AO113" t="inlineStr"/>
-      <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13835,8 +11764,6 @@
       <c r="L114" t="n">
         <v>54132400</v>
       </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13845,17 +11772,6 @@
       <c r="P114" t="n">
         <v>1</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="n">
         <v>0</v>
       </c>
@@ -13892,12 +11808,6 @@
       <c r="AM114" t="n">
         <v>0</v>
       </c>
-      <c r="AN114" t="inlineStr"/>
-      <c r="AO114" t="inlineStr"/>
-      <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13950,8 +11860,6 @@
       <c r="L115" t="n">
         <v>2639640</v>
       </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13960,17 +11868,6 @@
       <c r="P115" t="n">
         <v>1</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="n">
         <v>0</v>
       </c>
@@ -14007,12 +11904,6 @@
       <c r="AM115" t="n">
         <v>0</v>
       </c>
-      <c r="AN115" t="inlineStr"/>
-      <c r="AO115" t="inlineStr"/>
-      <c r="AP115" t="inlineStr"/>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14065,8 +11956,6 @@
       <c r="L116" t="n">
         <v>40334132.854</v>
       </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14075,17 +11964,6 @@
       <c r="P116" t="n">
         <v>1</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="n">
         <v>0</v>
       </c>
@@ -14122,12 +12000,6 @@
       <c r="AM116" t="n">
         <v>0</v>
       </c>
-      <c r="AN116" t="inlineStr"/>
-      <c r="AO116" t="inlineStr"/>
-      <c r="AP116" t="inlineStr"/>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14182,8 +12054,6 @@
       <c r="L117" t="n">
         <v>18696088.42927583</v>
       </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14192,17 +12062,6 @@
       <c r="P117" t="n">
         <v>1</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="n">
         <v>0</v>
       </c>
@@ -14239,12 +12098,6 @@
       <c r="AM117" t="n">
         <v>0</v>
       </c>
-      <c r="AN117" t="inlineStr"/>
-      <c r="AO117" t="inlineStr"/>
-      <c r="AP117" t="inlineStr"/>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14297,8 +12150,6 @@
       <c r="L118" t="n">
         <v>9321681.556111</v>
       </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14307,17 +12158,6 @@
       <c r="P118" t="n">
         <v>1</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="n">
         <v>0</v>
       </c>
@@ -14354,12 +12194,6 @@
       <c r="AM118" t="n">
         <v>0</v>
       </c>
-      <c r="AN118" t="inlineStr"/>
-      <c r="AO118" t="inlineStr"/>
-      <c r="AP118" t="inlineStr"/>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14393,7 +12227,6 @@
       <c r="G119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
         <v>8</v>
       </c>
@@ -14410,8 +12243,6 @@
       <c r="L119" t="n">
         <v>13701540</v>
       </c>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14420,17 +12251,6 @@
       <c r="P119" t="n">
         <v>1</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
         <v>0</v>
       </c>
@@ -14467,12 +12287,6 @@
       <c r="AM119" t="n">
         <v>0</v>
       </c>
-      <c r="AN119" t="inlineStr"/>
-      <c r="AO119" t="inlineStr"/>
-      <c r="AP119" t="inlineStr"/>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14525,8 +12339,6 @@
       <c r="L120" t="n">
         <v>33604750</v>
       </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14535,17 +12347,6 @@
       <c r="P120" t="n">
         <v>1</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
         <v>0</v>
       </c>
@@ -14582,12 +12383,6 @@
       <c r="AM120" t="n">
         <v>0</v>
       </c>
-      <c r="AN120" t="inlineStr"/>
-      <c r="AO120" t="inlineStr"/>
-      <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14621,7 +12416,6 @@
       <c r="G121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
         <v>9</v>
       </c>
@@ -14638,8 +12432,6 @@
       <c r="L121" t="n">
         <v>15203700</v>
       </c>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14648,17 +12440,6 @@
       <c r="P121" t="n">
         <v>1</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
         <v>0</v>
       </c>
@@ -14695,12 +12476,6 @@
       <c r="AM121" t="n">
         <v>0</v>
       </c>
-      <c r="AN121" t="inlineStr"/>
-      <c r="AO121" t="inlineStr"/>
-      <c r="AP121" t="inlineStr"/>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14753,8 +12528,6 @@
       <c r="L122" t="n">
         <v>2651200</v>
       </c>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14763,17 +12536,6 @@
       <c r="P122" t="n">
         <v>1</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="n">
         <v>0</v>
       </c>
@@ -14810,12 +12572,6 @@
       <c r="AM122" t="n">
         <v>0</v>
       </c>
-      <c r="AN122" t="inlineStr"/>
-      <c r="AO122" t="inlineStr"/>
-      <c r="AP122" t="inlineStr"/>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
-      <c r="AS122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14868,8 +12624,6 @@
       <c r="L123" t="n">
         <v>14412150</v>
       </c>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14878,17 +12632,6 @@
       <c r="P123" t="n">
         <v>1</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="n">
         <v>0</v>
       </c>
@@ -14925,12 +12668,6 @@
       <c r="AM123" t="n">
         <v>0</v>
       </c>
-      <c r="AN123" t="inlineStr"/>
-      <c r="AO123" t="inlineStr"/>
-      <c r="AP123" t="inlineStr"/>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
-      <c r="AS123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14964,7 +12701,6 @@
       <c r="G124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
         <v>30</v>
       </c>
@@ -14981,8 +12717,6 @@
       <c r="L124" t="n">
         <v>44180526.9</v>
       </c>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14991,17 +12725,6 @@
       <c r="P124" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="n">
         <v>0</v>
       </c>
@@ -15038,12 +12761,6 @@
       <c r="AM124" t="n">
         <v>0</v>
       </c>
-      <c r="AN124" t="inlineStr"/>
-      <c r="AO124" t="inlineStr"/>
-      <c r="AP124" t="inlineStr"/>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
-      <c r="AS124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15096,8 +12813,6 @@
       <c r="L125" t="n">
         <v>2612000</v>
       </c>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15106,17 +12821,6 @@
       <c r="P125" t="n">
         <v>1</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="n">
         <v>0</v>
       </c>
@@ -15153,12 +12857,6 @@
       <c r="AM125" t="n">
         <v>0</v>
       </c>
-      <c r="AN125" t="inlineStr"/>
-      <c r="AO125" t="inlineStr"/>
-      <c r="AP125" t="inlineStr"/>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
-      <c r="AS125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15211,8 +12909,6 @@
       <c r="L126" t="n">
         <v>2610000</v>
       </c>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15221,17 +12917,6 @@
       <c r="P126" t="n">
         <v>1</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="n">
         <v>0</v>
       </c>
@@ -15268,12 +12953,6 @@
       <c r="AM126" t="n">
         <v>0</v>
       </c>
-      <c r="AN126" t="inlineStr"/>
-      <c r="AO126" t="inlineStr"/>
-      <c r="AP126" t="inlineStr"/>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
-      <c r="AS126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15326,8 +13005,6 @@
       <c r="L127" t="n">
         <v>55632400</v>
       </c>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15336,17 +13013,6 @@
       <c r="P127" t="n">
         <v>1</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="n">
         <v>0</v>
       </c>
@@ -15383,12 +13049,6 @@
       <c r="AM127" t="n">
         <v>0</v>
       </c>
-      <c r="AN127" t="inlineStr"/>
-      <c r="AO127" t="inlineStr"/>
-      <c r="AP127" t="inlineStr"/>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
-      <c r="AS127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15441,8 +13101,6 @@
       <c r="L128" t="n">
         <v>2570000</v>
       </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15451,17 +13109,6 @@
       <c r="P128" t="n">
         <v>1</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="n">
         <v>0</v>
       </c>
@@ -15498,12 +13145,6 @@
       <c r="AM128" t="n">
         <v>0</v>
       </c>
-      <c r="AN128" t="inlineStr"/>
-      <c r="AO128" t="inlineStr"/>
-      <c r="AP128" t="inlineStr"/>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
-      <c r="AS128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15556,8 +13197,6 @@
       <c r="L129" t="n">
         <v>14775000</v>
       </c>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15566,17 +13205,6 @@
       <c r="P129" t="n">
         <v>1</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
         <v>0</v>
       </c>
@@ -15613,12 +13241,6 @@
       <c r="AM129" t="n">
         <v>0</v>
       </c>
-      <c r="AN129" t="inlineStr"/>
-      <c r="AO129" t="inlineStr"/>
-      <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
-      <c r="AS129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15671,8 +13293,6 @@
       <c r="L130" t="n">
         <v>5100000</v>
       </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15681,17 +13301,6 @@
       <c r="P130" t="n">
         <v>1</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
         <v>0</v>
       </c>
@@ -15728,12 +13337,6 @@
       <c r="AM130" t="n">
         <v>0</v>
       </c>
-      <c r="AN130" t="inlineStr"/>
-      <c r="AO130" t="inlineStr"/>
-      <c r="AP130" t="inlineStr"/>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
-      <c r="AS130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15786,8 +13389,6 @@
       <c r="L131" t="n">
         <v>2570000</v>
       </c>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15796,17 +13397,6 @@
       <c r="P131" t="n">
         <v>1</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
         <v>0</v>
       </c>
@@ -15843,12 +13433,6 @@
       <c r="AM131" t="n">
         <v>0</v>
       </c>
-      <c r="AN131" t="inlineStr"/>
-      <c r="AO131" t="inlineStr"/>
-      <c r="AP131" t="inlineStr"/>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
-      <c r="AS131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15901,8 +13485,6 @@
       <c r="L132" t="n">
         <v>62308950</v>
       </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -15911,17 +13493,6 @@
       <c r="P132" t="n">
         <v>1</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
         <v>0</v>
       </c>
@@ -15958,12 +13529,6 @@
       <c r="AM132" t="n">
         <v>0</v>
       </c>
-      <c r="AN132" t="inlineStr"/>
-      <c r="AO132" t="inlineStr"/>
-      <c r="AP132" t="inlineStr"/>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
-      <c r="AS132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16016,8 +13581,6 @@
       <c r="L133" t="n">
         <v>4852956.862745098</v>
       </c>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16026,17 +13589,6 @@
       <c r="P133" t="n">
         <v>1</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
         <v>0</v>
       </c>
@@ -16073,12 +13625,6 @@
       <c r="AM133" t="n">
         <v>0</v>
       </c>
-      <c r="AN133" t="inlineStr"/>
-      <c r="AO133" t="inlineStr"/>
-      <c r="AP133" t="inlineStr"/>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
-      <c r="AS133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16131,8 +13677,6 @@
       <c r="L134" t="n">
         <v>14775000</v>
       </c>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16141,17 +13685,6 @@
       <c r="P134" t="n">
         <v>1</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
         <v>0</v>
       </c>
@@ -16188,12 +13721,6 @@
       <c r="AM134" t="n">
         <v>0</v>
       </c>
-      <c r="AN134" t="inlineStr"/>
-      <c r="AO134" t="inlineStr"/>
-      <c r="AP134" t="inlineStr"/>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
-      <c r="AS134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16246,8 +13773,6 @@
       <c r="L135" t="n">
         <v>2550000</v>
       </c>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16256,17 +13781,6 @@
       <c r="P135" t="n">
         <v>1</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
         <v>0</v>
       </c>
@@ -16303,12 +13817,6 @@
       <c r="AM135" t="n">
         <v>0</v>
       </c>
-      <c r="AN135" t="inlineStr"/>
-      <c r="AO135" t="inlineStr"/>
-      <c r="AP135" t="inlineStr"/>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16361,8 +13869,6 @@
       <c r="L136" t="n">
         <v>44304687.24</v>
       </c>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16371,17 +13877,6 @@
       <c r="P136" t="n">
         <v>1</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
         <v>0</v>
       </c>
@@ -16418,12 +13913,6 @@
       <c r="AM136" t="n">
         <v>0</v>
       </c>
-      <c r="AN136" t="inlineStr"/>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16476,8 +13965,6 @@
       <c r="L137" t="n">
         <v>2570000</v>
       </c>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16486,17 +13973,6 @@
       <c r="P137" t="n">
         <v>1</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
         <v>0</v>
       </c>
@@ -16533,12 +14009,6 @@
       <c r="AM137" t="n">
         <v>0</v>
       </c>
-      <c r="AN137" t="inlineStr"/>
-      <c r="AO137" t="inlineStr"/>
-      <c r="AP137" t="inlineStr"/>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
-      <c r="AS137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16591,8 +14061,6 @@
       <c r="L138" t="n">
         <v>27776200</v>
       </c>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16601,17 +14069,6 @@
       <c r="P138" t="n">
         <v>1</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
         <v>0</v>
       </c>
@@ -16648,12 +14105,6 @@
       <c r="AM138" t="n">
         <v>0</v>
       </c>
-      <c r="AN138" t="inlineStr"/>
-      <c r="AO138" t="inlineStr"/>
-      <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
-      <c r="AS138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16687,7 +14138,6 @@
       <c r="G139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
         <v>1</v>
       </c>
@@ -16704,8 +14154,6 @@
       <c r="L139" t="n">
         <v>11180000</v>
       </c>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16714,17 +14162,6 @@
       <c r="P139" t="n">
         <v>1</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
         <v>0</v>
       </c>
@@ -16761,12 +14198,6 @@
       <c r="AM139" t="n">
         <v>0</v>
       </c>
-      <c r="AN139" t="inlineStr"/>
-      <c r="AO139" t="inlineStr"/>
-      <c r="AP139" t="inlineStr"/>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
-      <c r="AS139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16819,8 +14250,6 @@
       <c r="L140" t="n">
         <v>22212343.62</v>
       </c>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16829,17 +14258,6 @@
       <c r="P140" t="n">
         <v>1</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
         <v>0</v>
       </c>
@@ -16876,12 +14294,6 @@
       <c r="AM140" t="n">
         <v>0</v>
       </c>
-      <c r="AN140" t="inlineStr"/>
-      <c r="AO140" t="inlineStr"/>
-      <c r="AP140" t="inlineStr"/>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
-      <c r="AS140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16915,7 +14327,6 @@
       <c r="G141" t="n">
         <v>2</v>
       </c>
-      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
         <v>9</v>
       </c>
@@ -16932,8 +14343,6 @@
       <c r="L141" t="n">
         <v>14820000</v>
       </c>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -16942,17 +14351,6 @@
       <c r="P141" t="n">
         <v>1</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
         <v>0</v>
       </c>
@@ -16989,12 +14387,6 @@
       <c r="AM141" t="n">
         <v>0</v>
       </c>
-      <c r="AN141" t="inlineStr"/>
-      <c r="AO141" t="inlineStr"/>
-      <c r="AP141" t="inlineStr"/>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
-      <c r="AS141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17047,8 +14439,6 @@
       <c r="L142" t="n">
         <v>2560000</v>
       </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17057,17 +14447,6 @@
       <c r="P142" t="n">
         <v>1</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
         <v>0</v>
       </c>
@@ -17104,12 +14483,6 @@
       <c r="AM142" t="n">
         <v>0</v>
       </c>
-      <c r="AN142" t="inlineStr"/>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17162,8 +14535,6 @@
       <c r="L143" t="n">
         <v>41619300</v>
       </c>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17172,17 +14543,6 @@
       <c r="P143" t="n">
         <v>1</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
         <v>0</v>
       </c>
@@ -17219,12 +14579,6 @@
       <c r="AM143" t="n">
         <v>0</v>
       </c>
-      <c r="AN143" t="inlineStr"/>
-      <c r="AO143" t="inlineStr"/>
-      <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17258,7 +14612,6 @@
       <c r="G144" t="n">
         <v>2</v>
       </c>
-      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
         <v>6</v>
       </c>
@@ -17275,8 +14628,6 @@
       <c r="L144" t="n">
         <v>10680000</v>
       </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17285,17 +14636,6 @@
       <c r="P144" t="n">
         <v>1</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
         <v>0</v>
       </c>
@@ -17332,12 +14672,6 @@
       <c r="AM144" t="n">
         <v>0</v>
       </c>
-      <c r="AN144" t="inlineStr"/>
-      <c r="AO144" t="inlineStr"/>
-      <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17390,8 +14724,6 @@
       <c r="L145" t="n">
         <v>20809650</v>
       </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17400,17 +14732,6 @@
       <c r="P145" t="n">
         <v>1</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
         <v>0</v>
       </c>
@@ -17447,12 +14768,6 @@
       <c r="AM145" t="n">
         <v>0</v>
       </c>
-      <c r="AN145" t="inlineStr"/>
-      <c r="AO145" t="inlineStr"/>
-      <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
-      <c r="AS145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17486,7 +14801,6 @@
       <c r="G146" t="n">
         <v>2</v>
       </c>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
         <v>9</v>
       </c>
@@ -17503,8 +14817,6 @@
       <c r="L146" t="n">
         <v>14820000</v>
       </c>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17513,17 +14825,6 @@
       <c r="P146" t="n">
         <v>1</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
         <v>0</v>
       </c>
@@ -17560,12 +14861,6 @@
       <c r="AM146" t="n">
         <v>0</v>
       </c>
-      <c r="AN146" t="inlineStr"/>
-      <c r="AO146" t="inlineStr"/>
-      <c r="AP146" t="inlineStr"/>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
-      <c r="AS146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17618,8 +14913,6 @@
       <c r="L147" t="n">
         <v>13858100</v>
       </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17628,17 +14921,6 @@
       <c r="P147" t="n">
         <v>1</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
         <v>0</v>
       </c>
@@ -17675,12 +14957,6 @@
       <c r="AM147" t="n">
         <v>0</v>
       </c>
-      <c r="AN147" t="inlineStr"/>
-      <c r="AO147" t="inlineStr"/>
-      <c r="AP147" t="inlineStr"/>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
-      <c r="AS147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17733,8 +15009,6 @@
       <c r="L148" t="n">
         <v>13858100</v>
       </c>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17743,17 +15017,6 @@
       <c r="P148" t="n">
         <v>1</v>
       </c>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
-      <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
         <v>0</v>
       </c>
@@ -17790,12 +15053,6 @@
       <c r="AM148" t="n">
         <v>0</v>
       </c>
-      <c r="AN148" t="inlineStr"/>
-      <c r="AO148" t="inlineStr"/>
-      <c r="AP148" t="inlineStr"/>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
-      <c r="AS148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17848,8 +15105,6 @@
       <c r="L149" t="n">
         <v>14800000</v>
       </c>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17858,17 +15113,6 @@
       <c r="P149" t="n">
         <v>1</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
         <v>0</v>
       </c>
@@ -17905,12 +15149,6 @@
       <c r="AM149" t="n">
         <v>0</v>
       </c>
-      <c r="AN149" t="inlineStr"/>
-      <c r="AO149" t="inlineStr"/>
-      <c r="AP149" t="inlineStr"/>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
-      <c r="AS149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17944,7 +15182,6 @@
       <c r="G150" t="n">
         <v>2</v>
       </c>
-      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
         <v>4</v>
       </c>
@@ -17961,8 +15198,6 @@
       <c r="L150" t="n">
         <v>6675000</v>
       </c>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -17971,17 +15206,6 @@
       <c r="P150" t="n">
         <v>1</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
         <v>0</v>
       </c>
@@ -18018,12 +15242,6 @@
       <c r="AM150" t="n">
         <v>0</v>
       </c>
-      <c r="AN150" t="inlineStr"/>
-      <c r="AO150" t="inlineStr"/>
-      <c r="AP150" t="inlineStr"/>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
-      <c r="AS150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18076,8 +15294,6 @@
       <c r="L151" t="n">
         <v>5125000</v>
       </c>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18086,17 +15302,6 @@
       <c r="P151" t="n">
         <v>1</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
         <v>0</v>
       </c>
@@ -18133,12 +15338,6 @@
       <c r="AM151" t="n">
         <v>0</v>
       </c>
-      <c r="AN151" t="inlineStr"/>
-      <c r="AO151" t="inlineStr"/>
-      <c r="AP151" t="inlineStr"/>
-      <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
-      <c r="AS151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18191,8 +15390,6 @@
       <c r="L152" t="n">
         <v>13300000</v>
       </c>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18201,17 +15398,6 @@
       <c r="P152" t="n">
         <v>1</v>
       </c>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
         <v>0</v>
       </c>
@@ -18248,12 +15434,6 @@
       <c r="AM152" t="n">
         <v>0</v>
       </c>
-      <c r="AN152" t="inlineStr"/>
-      <c r="AO152" t="inlineStr"/>
-      <c r="AP152" t="inlineStr"/>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
-      <c r="AS152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18306,8 +15486,6 @@
       <c r="L153" t="n">
         <v>5100000</v>
       </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18316,17 +15494,6 @@
       <c r="P153" t="n">
         <v>1</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
         <v>0</v>
       </c>
@@ -18363,12 +15530,6 @@
       <c r="AM153" t="n">
         <v>0</v>
       </c>
-      <c r="AN153" t="inlineStr"/>
-      <c r="AO153" t="inlineStr"/>
-      <c r="AP153" t="inlineStr"/>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18421,8 +15582,6 @@
       <c r="L154" t="n">
         <v>20949650</v>
       </c>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18431,17 +15590,6 @@
       <c r="P154" t="n">
         <v>1</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
         <v>0</v>
       </c>
@@ -18478,12 +15626,6 @@
       <c r="AM154" t="n">
         <v>0</v>
       </c>
-      <c r="AN154" t="inlineStr"/>
-      <c r="AO154" t="inlineStr"/>
-      <c r="AP154" t="inlineStr"/>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
-      <c r="AS154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18536,8 +15678,6 @@
       <c r="L155" t="n">
         <v>14775000</v>
       </c>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18546,17 +15686,6 @@
       <c r="P155" t="n">
         <v>1</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
         <v>0</v>
       </c>
@@ -18593,12 +15722,6 @@
       <c r="AM155" t="n">
         <v>0</v>
       </c>
-      <c r="AN155" t="inlineStr"/>
-      <c r="AO155" t="inlineStr"/>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
-      <c r="AS155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18632,7 +15755,6 @@
       <c r="G156" t="n">
         <v>2</v>
       </c>
-      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
         <v>12</v>
       </c>
@@ -18649,8 +15771,6 @@
       <c r="L156" t="n">
         <v>20749650</v>
       </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18659,17 +15779,6 @@
       <c r="P156" t="n">
         <v>1</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
         <v>0</v>
       </c>
@@ -18706,12 +15815,6 @@
       <c r="AM156" t="n">
         <v>0</v>
       </c>
-      <c r="AN156" t="inlineStr"/>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18764,8 +15867,6 @@
       <c r="L157" t="n">
         <v>5100000</v>
       </c>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18774,17 +15875,6 @@
       <c r="P157" t="n">
         <v>1</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
         <v>0</v>
       </c>
@@ -18821,12 +15911,6 @@
       <c r="AM157" t="n">
         <v>0</v>
       </c>
-      <c r="AN157" t="inlineStr"/>
-      <c r="AO157" t="inlineStr"/>
-      <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18879,8 +15963,6 @@
       <c r="L158" t="n">
         <v>2550000</v>
       </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -18889,17 +15971,6 @@
       <c r="P158" t="n">
         <v>1</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="n">
         <v>0</v>
       </c>
@@ -18936,12 +16007,6 @@
       <c r="AM158" t="n">
         <v>0</v>
       </c>
-      <c r="AN158" t="inlineStr"/>
-      <c r="AO158" t="inlineStr"/>
-      <c r="AP158" t="inlineStr"/>
-      <c r="AQ158" t="inlineStr"/>
-      <c r="AR158" t="inlineStr"/>
-      <c r="AS158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18994,8 +16059,6 @@
       <c r="L159" t="n">
         <v>12871310.09</v>
       </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19004,20 +16067,16 @@
       <c r="P159" t="n">
         <v>1</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" s="2" t="n">
+      <c r="U159" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V159" s="2" t="n">
+      <c r="V159" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W159" s="2" t="n">
+      <c r="W159" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X159" s="2" t="n">
+      <c r="X159" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y159" t="n">
@@ -19028,7 +16087,6 @@
           <t>RAMONA CONST. &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="n">
         <v>0</v>
       </c>
@@ -19065,12 +16123,6 @@
       <c r="AM159" t="n">
         <v>0</v>
       </c>
-      <c r="AN159" t="inlineStr"/>
-      <c r="AO159" t="inlineStr"/>
-      <c r="AP159" t="inlineStr"/>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
-      <c r="AS159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19123,8 +16175,6 @@
       <c r="L160" t="n">
         <v>12871310.09</v>
       </c>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19133,20 +16183,16 @@
       <c r="P160" t="n">
         <v>1</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" s="2" t="n">
+      <c r="U160" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V160" s="2" t="n">
+      <c r="V160" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W160" s="2" t="n">
+      <c r="W160" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X160" s="2" t="n">
+      <c r="X160" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y160" t="n">
@@ -19157,7 +16203,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="n">
         <v>0</v>
       </c>
@@ -19194,12 +16239,6 @@
       <c r="AM160" t="n">
         <v>0</v>
       </c>
-      <c r="AN160" t="inlineStr"/>
-      <c r="AO160" t="inlineStr"/>
-      <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
-      <c r="AS160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19252,8 +16291,6 @@
       <c r="L161" t="n">
         <v>18347268.79</v>
       </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19262,20 +16299,16 @@
       <c r="P161" t="n">
         <v>1</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" s="2" t="n">
+      <c r="U161" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V161" s="2" t="n">
+      <c r="V161" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W161" s="2" t="n">
+      <c r="W161" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X161" s="2" t="n">
+      <c r="X161" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y161" t="n">
@@ -19286,7 +16319,6 @@
           <t>GENETIAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="n">
         <v>0</v>
       </c>
@@ -19323,12 +16355,6 @@
       <c r="AM161" t="n">
         <v>0</v>
       </c>
-      <c r="AN161" t="inlineStr"/>
-      <c r="AO161" t="inlineStr"/>
-      <c r="AP161" t="inlineStr"/>
-      <c r="AQ161" t="inlineStr"/>
-      <c r="AR161" t="inlineStr"/>
-      <c r="AS161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19381,8 +16407,6 @@
       <c r="L162" t="n">
         <v>11235000</v>
       </c>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19391,20 +16415,16 @@
       <c r="P162" t="n">
         <v>1</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" s="2" t="n">
+      <c r="U162" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V162" s="2" t="n">
+      <c r="V162" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W162" s="2" t="n">
+      <c r="W162" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X162" s="2" t="n">
+      <c r="X162" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y162" t="n">
@@ -19415,7 +16435,6 @@
           <t>MINDANAO ROCK</t>
         </is>
       </c>
-      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="n">
         <v>0</v>
       </c>
@@ -19452,12 +16471,6 @@
       <c r="AM162" t="n">
         <v>0</v>
       </c>
-      <c r="AN162" t="inlineStr"/>
-      <c r="AO162" t="inlineStr"/>
-      <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
-      <c r="AR162" t="inlineStr"/>
-      <c r="AS162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19510,8 +16523,6 @@
       <c r="L163" t="n">
         <v>9171461.556111</v>
       </c>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19520,20 +16531,16 @@
       <c r="P163" t="n">
         <v>1</v>
       </c>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" s="2" t="n">
+      <c r="U163" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V163" s="2" t="n">
+      <c r="V163" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W163" s="2" t="n">
+      <c r="W163" s="3" t="n">
         <v>42597</v>
       </c>
-      <c r="X163" s="2" t="n">
+      <c r="X163" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="Y163" t="n">
@@ -19544,7 +16551,6 @@
           <t>GENETIAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="n">
         <v>0</v>
       </c>
@@ -19581,12 +16587,6 @@
       <c r="AM163" t="n">
         <v>0</v>
       </c>
-      <c r="AN163" t="inlineStr"/>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
-      <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="inlineStr"/>
-      <c r="AS163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19639,8 +16639,6 @@
       <c r="L164" t="n">
         <v>12771310.09</v>
       </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
           <t>Terminated</t>
@@ -19649,20 +16647,16 @@
       <c r="P164" t="n">
         <v>0.41</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" s="2" t="n">
+      <c r="U164" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="V164" s="2" t="n">
+      <c r="V164" s="3" t="n">
         <v>42563</v>
       </c>
-      <c r="W164" s="2" t="n">
+      <c r="W164" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="X164" s="2" t="n">
+      <c r="X164" s="3" t="n">
         <v>42591</v>
       </c>
       <c r="Y164" t="n">
@@ -19714,12 +16708,6 @@
       <c r="AM164" t="n">
         <v>10</v>
       </c>
-      <c r="AN164" t="inlineStr"/>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
-      <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
-      <c r="AS164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19753,7 +16741,6 @@
       <c r="G165" t="n">
         <v>1</v>
       </c>
-      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
         <v>16</v>
       </c>
@@ -19770,8 +16757,6 @@
       <c r="L165" t="n">
         <v>21754685.18</v>
       </c>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
           <t>Terminated</t>
@@ -19780,20 +16765,16 @@
       <c r="P165" t="n">
         <v>0.37</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" s="2" t="n">
+      <c r="U165" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V165" s="2" t="n">
+      <c r="V165" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W165" s="2" t="n">
+      <c r="W165" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X165" s="2" t="n">
+      <c r="X165" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y165" t="n">
@@ -19845,12 +16826,6 @@
       <c r="AM165" t="n">
         <v>16</v>
       </c>
-      <c r="AN165" t="inlineStr"/>
-      <c r="AO165" t="inlineStr"/>
-      <c r="AP165" t="inlineStr"/>
-      <c r="AQ165" t="inlineStr"/>
-      <c r="AR165" t="inlineStr"/>
-      <c r="AS165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19903,8 +16878,6 @@
       <c r="L166" t="n">
         <v>2417461.96</v>
       </c>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19913,20 +16886,16 @@
       <c r="P166" t="n">
         <v>1</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" s="2" t="n">
+      <c r="U166" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="V166" s="2" t="n">
+      <c r="V166" s="3" t="n">
         <v>42468</v>
       </c>
-      <c r="W166" s="2" t="n">
+      <c r="W166" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="X166" s="2" t="n">
+      <c r="X166" s="3" t="n">
         <v>42496</v>
       </c>
       <c r="Y166" t="n">
@@ -19937,7 +16906,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="n">
         <v>0</v>
       </c>
@@ -19974,12 +16942,6 @@
       <c r="AM166" t="n">
         <v>0</v>
       </c>
-      <c r="AN166" t="inlineStr"/>
-      <c r="AO166" t="inlineStr"/>
-      <c r="AP166" t="inlineStr"/>
-      <c r="AQ166" t="inlineStr"/>
-      <c r="AR166" t="inlineStr"/>
-      <c r="AS166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20032,8 +16994,6 @@
       <c r="L167" t="n">
         <v>10877342.59</v>
       </c>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20042,20 +17002,16 @@
       <c r="P167" t="n">
         <v>1</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" s="2" t="n">
+      <c r="U167" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="V167" s="2" t="n">
+      <c r="V167" s="3" t="n">
         <v>42563</v>
       </c>
-      <c r="W167" s="2" t="n">
+      <c r="W167" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="X167" s="2" t="n">
+      <c r="X167" s="3" t="n">
         <v>42591</v>
       </c>
       <c r="Y167" t="n">
@@ -20066,7 +17022,6 @@
           <t>MJMARI BUILD. &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="n">
         <v>0</v>
       </c>
@@ -20103,12 +17058,6 @@
       <c r="AM167" t="n">
         <v>0</v>
       </c>
-      <c r="AN167" t="inlineStr"/>
-      <c r="AO167" t="inlineStr"/>
-      <c r="AP167" t="inlineStr"/>
-      <c r="AQ167" t="inlineStr"/>
-      <c r="AR167" t="inlineStr"/>
-      <c r="AS167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20161,8 +17110,6 @@
       <c r="L168" t="n">
         <v>25542620.18</v>
       </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20171,20 +17118,16 @@
       <c r="P168" t="n">
         <v>1</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" s="2" t="n">
+      <c r="U168" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="V168" s="2" t="n">
+      <c r="V168" s="3" t="n">
         <v>42563</v>
       </c>
-      <c r="W168" s="2" t="n">
+      <c r="W168" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="X168" s="2" t="n">
+      <c r="X168" s="3" t="n">
         <v>42591</v>
       </c>
       <c r="Y168" t="n">
@@ -20195,7 +17138,6 @@
           <t>GENETIAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="n">
         <v>0</v>
       </c>
@@ -20232,12 +17174,6 @@
       <c r="AM168" t="n">
         <v>0</v>
       </c>
-      <c r="AN168" t="inlineStr"/>
-      <c r="AO168" t="inlineStr"/>
-      <c r="AP168" t="inlineStr"/>
-      <c r="AQ168" t="inlineStr"/>
-      <c r="AR168" t="inlineStr"/>
-      <c r="AS168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20290,8 +17226,6 @@
       <c r="L169" t="n">
         <v>10877342.59</v>
       </c>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20300,20 +17234,16 @@
       <c r="P169" t="n">
         <v>1</v>
       </c>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" s="2" t="n">
+      <c r="U169" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="V169" s="2" t="n">
+      <c r="V169" s="3" t="n">
         <v>42563</v>
       </c>
-      <c r="W169" s="2" t="n">
+      <c r="W169" s="3" t="n">
         <v>42576</v>
       </c>
-      <c r="X169" s="2" t="n">
+      <c r="X169" s="3" t="n">
         <v>42591</v>
       </c>
       <c r="Y169" t="n">
@@ -20324,7 +17254,6 @@
           <t>GENETIAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="n">
         <v>0</v>
       </c>
@@ -20361,12 +17290,6 @@
       <c r="AM169" t="n">
         <v>0</v>
       </c>
-      <c r="AN169" t="inlineStr"/>
-      <c r="AO169" t="inlineStr"/>
-      <c r="AP169" t="inlineStr"/>
-      <c r="AQ169" t="inlineStr"/>
-      <c r="AR169" t="inlineStr"/>
-      <c r="AS169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20419,8 +17342,6 @@
       <c r="L170" t="n">
         <v>4834923.92</v>
       </c>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20429,20 +17350,16 @@
       <c r="P170" t="n">
         <v>1</v>
       </c>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" s="2" t="n">
+      <c r="U170" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="V170" s="2" t="n">
+      <c r="V170" s="3" t="n">
         <v>42468</v>
       </c>
-      <c r="W170" s="2" t="n">
+      <c r="W170" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="X170" s="2" t="n">
+      <c r="X170" s="3" t="n">
         <v>42496</v>
       </c>
       <c r="Y170" t="n">
@@ -20453,7 +17370,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="n">
         <v>0</v>
       </c>
@@ -20490,12 +17406,6 @@
       <c r="AM170" t="n">
         <v>0</v>
       </c>
-      <c r="AN170" t="inlineStr"/>
-      <c r="AO170" t="inlineStr"/>
-      <c r="AP170" t="inlineStr"/>
-      <c r="AQ170" t="inlineStr"/>
-      <c r="AR170" t="inlineStr"/>
-      <c r="AS170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20548,8 +17458,6 @@
       <c r="L171" t="n">
         <v>11077342.59</v>
       </c>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20558,20 +17466,16 @@
       <c r="P171" t="n">
         <v>1</v>
       </c>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" s="2" t="n">
+      <c r="U171" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V171" s="2" t="n">
+      <c r="V171" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W171" s="2" t="n">
+      <c r="W171" s="3" t="n">
         <v>42620</v>
       </c>
-      <c r="X171" s="2" t="n">
+      <c r="X171" s="3" t="n">
         <v>42635</v>
       </c>
       <c r="Y171" t="n">
@@ -20582,7 +17486,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="n">
         <v>0</v>
       </c>
@@ -20619,12 +17522,6 @@
       <c r="AM171" t="n">
         <v>0</v>
       </c>
-      <c r="AN171" t="inlineStr"/>
-      <c r="AO171" t="inlineStr"/>
-      <c r="AP171" t="inlineStr"/>
-      <c r="AQ171" t="inlineStr"/>
-      <c r="AR171" t="inlineStr"/>
-      <c r="AS171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20677,8 +17574,6 @@
       <c r="L172" t="n">
         <v>12896310.09</v>
       </c>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20687,20 +17582,16 @@
       <c r="P172" t="n">
         <v>1</v>
       </c>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" s="2" t="n">
+      <c r="U172" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V172" s="2" t="n">
+      <c r="V172" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W172" s="2" t="n">
+      <c r="W172" s="3" t="n">
         <v>42620</v>
       </c>
-      <c r="X172" s="2" t="n">
+      <c r="X172" s="3" t="n">
         <v>42635</v>
       </c>
       <c r="Y172" t="n">
@@ -20711,7 +17602,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="n">
         <v>0</v>
       </c>
@@ -20748,12 +17638,6 @@
       <c r="AM172" t="n">
         <v>0</v>
       </c>
-      <c r="AN172" t="inlineStr"/>
-      <c r="AO172" t="inlineStr"/>
-      <c r="AP172" t="inlineStr"/>
-      <c r="AQ172" t="inlineStr"/>
-      <c r="AR172" t="inlineStr"/>
-      <c r="AS172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20806,8 +17690,6 @@
       <c r="L173" t="n">
         <v>12846310.09</v>
       </c>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20816,11 +17698,7 @@
       <c r="P173" t="n">
         <v>1</v>
       </c>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" s="2" t="n">
+      <c r="U173" s="3" t="n">
         <v>42561</v>
       </c>
       <c r="V173" t="inlineStr">
@@ -20833,7 +17711,7 @@
           <t>10/24/16</t>
         </is>
       </c>
-      <c r="X173" s="2" t="n">
+      <c r="X173" s="3" t="n">
         <v>42440</v>
       </c>
       <c r="Y173" t="n">
@@ -20844,7 +17722,6 @@
           <t>HENSO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="n">
         <v>0</v>
       </c>
@@ -20881,12 +17758,6 @@
       <c r="AM173" t="n">
         <v>0</v>
       </c>
-      <c r="AN173" t="inlineStr"/>
-      <c r="AO173" t="inlineStr"/>
-      <c r="AP173" t="inlineStr"/>
-      <c r="AQ173" t="inlineStr"/>
-      <c r="AR173" t="inlineStr"/>
-      <c r="AS173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20920,7 +17791,6 @@
       <c r="G174" t="n">
         <v>1</v>
       </c>
-      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
         <v>16</v>
       </c>
@@ -20937,8 +17807,6 @@
       <c r="L174" t="n">
         <v>21854685.18</v>
       </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -20947,20 +17815,16 @@
       <c r="P174" t="n">
         <v>1</v>
       </c>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" s="2" t="n">
+      <c r="U174" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V174" s="2" t="n">
+      <c r="V174" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W174" s="2" t="n">
+      <c r="W174" s="3" t="n">
         <v>42597</v>
       </c>
-      <c r="X174" s="2" t="n">
+      <c r="X174" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="Y174" t="n">
@@ -20971,7 +17835,6 @@
           <t>RUDHIL CONST. &amp; ENT. INC.</t>
         </is>
       </c>
-      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="n">
         <v>0</v>
       </c>
@@ -21008,12 +17871,6 @@
       <c r="AM174" t="n">
         <v>0</v>
       </c>
-      <c r="AN174" t="inlineStr"/>
-      <c r="AO174" t="inlineStr"/>
-      <c r="AP174" t="inlineStr"/>
-      <c r="AQ174" t="inlineStr"/>
-      <c r="AR174" t="inlineStr"/>
-      <c r="AS174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21066,8 +17923,6 @@
       <c r="L175" t="n">
         <v>2417461.96</v>
       </c>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21076,20 +17931,16 @@
       <c r="P175" t="n">
         <v>1</v>
       </c>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" s="2" t="n">
+      <c r="U175" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="V175" s="2" t="n">
+      <c r="V175" s="3" t="n">
         <v>42468</v>
       </c>
-      <c r="W175" s="2" t="n">
+      <c r="W175" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="X175" s="2" t="n">
+      <c r="X175" s="3" t="n">
         <v>42496</v>
       </c>
       <c r="Y175" t="n">
@@ -21100,7 +17951,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="n">
         <v>0</v>
       </c>
@@ -21137,12 +17987,6 @@
       <c r="AM175" t="n">
         <v>0</v>
       </c>
-      <c r="AN175" t="inlineStr"/>
-      <c r="AO175" t="inlineStr"/>
-      <c r="AP175" t="inlineStr"/>
-      <c r="AQ175" t="inlineStr"/>
-      <c r="AR175" t="inlineStr"/>
-      <c r="AS175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21195,8 +18039,6 @@
       <c r="L176" t="n">
         <v>25094895.18</v>
       </c>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21205,20 +18047,16 @@
       <c r="P176" t="n">
         <v>1</v>
       </c>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" s="2" t="n">
+      <c r="U176" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W176" s="2" t="n">
+      <c r="W176" s="3" t="n">
         <v>42620</v>
       </c>
-      <c r="X176" s="2" t="n">
+      <c r="X176" s="3" t="n">
         <v>42635</v>
       </c>
       <c r="Y176" t="n">
@@ -21229,7 +18067,6 @@
           <t>RAMONA CONST. &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="n">
         <v>0</v>
       </c>
@@ -21266,12 +18103,6 @@
       <c r="AM176" t="n">
         <v>0</v>
       </c>
-      <c r="AN176" t="inlineStr"/>
-      <c r="AO176" t="inlineStr"/>
-      <c r="AP176" t="inlineStr"/>
-      <c r="AQ176" t="inlineStr"/>
-      <c r="AR176" t="inlineStr"/>
-      <c r="AS176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21324,8 +18155,6 @@
       <c r="L177" t="n">
         <v>4984923.92</v>
       </c>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21334,20 +18163,16 @@
       <c r="P177" t="n">
         <v>1</v>
       </c>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" s="2" t="n">
+      <c r="U177" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="3" t="n">
         <v>42468</v>
       </c>
-      <c r="W177" s="2" t="n">
+      <c r="W177" s="3" t="n">
         <v>42481</v>
       </c>
-      <c r="X177" s="2" t="n">
+      <c r="X177" s="3" t="n">
         <v>42496</v>
       </c>
       <c r="Y177" t="n">
@@ -21358,7 +18183,6 @@
           <t>ST. JOSEPH CONST. &amp; TRADING</t>
         </is>
       </c>
-      <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="n">
         <v>0</v>
       </c>
@@ -21395,12 +18219,6 @@
       <c r="AM177" t="n">
         <v>0</v>
       </c>
-      <c r="AN177" t="inlineStr"/>
-      <c r="AO177" t="inlineStr"/>
-      <c r="AP177" t="inlineStr"/>
-      <c r="AQ177" t="inlineStr"/>
-      <c r="AR177" t="inlineStr"/>
-      <c r="AS177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21453,8 +18271,6 @@
       <c r="L178" t="n">
         <v>12896310.09</v>
       </c>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21463,20 +18279,16 @@
       <c r="P178" t="n">
         <v>1</v>
       </c>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" s="2" t="n">
+      <c r="U178" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="V178" s="2" t="n">
+      <c r="V178" s="3" t="n">
         <v>42598</v>
       </c>
-      <c r="W178" s="2" t="n">
+      <c r="W178" s="3" t="n">
         <v>42612</v>
       </c>
-      <c r="X178" s="2" t="n">
+      <c r="X178" s="3" t="n">
         <v>42627</v>
       </c>
       <c r="Y178" t="n">
@@ -21487,7 +18299,6 @@
           <t>RAMONA CONST. &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="n">
         <v>0</v>
       </c>
@@ -21524,12 +18335,6 @@
       <c r="AM178" t="n">
         <v>0</v>
       </c>
-      <c r="AN178" t="inlineStr"/>
-      <c r="AO178" t="inlineStr"/>
-      <c r="AP178" t="inlineStr"/>
-      <c r="AQ178" t="inlineStr"/>
-      <c r="AR178" t="inlineStr"/>
-      <c r="AS178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21582,8 +18387,6 @@
       <c r="L179" t="n">
         <v>12921310.09</v>
       </c>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21592,20 +18395,16 @@
       <c r="P179" t="n">
         <v>1</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" s="2" t="n">
+      <c r="U179" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V179" s="2" t="n">
+      <c r="V179" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W179" s="2" t="n">
+      <c r="W179" s="3" t="n">
         <v>42620</v>
       </c>
-      <c r="X179" s="2" t="n">
+      <c r="X179" s="3" t="n">
         <v>42635</v>
       </c>
       <c r="Y179" t="n">
@@ -21616,7 +18415,6 @@
           <t>RAMONA CONST. &amp; ENT.</t>
         </is>
       </c>
-      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="n">
         <v>0</v>
       </c>
@@ -21653,12 +18451,6 @@
       <c r="AM179" t="n">
         <v>0</v>
       </c>
-      <c r="AN179" t="inlineStr"/>
-      <c r="AO179" t="inlineStr"/>
-      <c r="AP179" t="inlineStr"/>
-      <c r="AQ179" t="inlineStr"/>
-      <c r="AR179" t="inlineStr"/>
-      <c r="AS179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21692,7 +18484,6 @@
       <c r="G180" t="n">
         <v>1</v>
       </c>
-      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
         <v>8</v>
       </c>
@@ -21709,8 +18500,6 @@
       <c r="L180" t="n">
         <v>10977342.59</v>
       </c>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21719,20 +18508,16 @@
       <c r="P180" t="n">
         <v>1</v>
       </c>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" s="2" t="n">
+      <c r="U180" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="V180" s="2" t="n">
+      <c r="V180" s="3" t="n">
         <v>42585</v>
       </c>
-      <c r="W180" s="2" t="n">
+      <c r="W180" s="3" t="n">
         <v>42620</v>
       </c>
-      <c r="X180" s="2" t="n">
+      <c r="X180" s="3" t="n">
         <v>42635</v>
       </c>
       <c r="Y180" t="n">
@@ -21743,7 +18528,6 @@
           <t>JAYKRIS ENT. &amp; CONST.</t>
         </is>
       </c>
-      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
         <v>0</v>
       </c>
@@ -21780,12 +18564,6 @@
       <c r="AM180" t="n">
         <v>0</v>
       </c>
-      <c r="AN180" t="inlineStr"/>
-      <c r="AO180" t="inlineStr"/>
-      <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
-      <c r="AR180" t="inlineStr"/>
-      <c r="AS180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21838,8 +18616,6 @@
       <c r="L181" t="n">
         <v>2396899.38</v>
       </c>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21848,17 +18624,6 @@
       <c r="P181" t="n">
         <v>1</v>
       </c>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
         <v>0</v>
       </c>
@@ -21895,12 +18660,6 @@
       <c r="AM181" t="n">
         <v>0</v>
       </c>
-      <c r="AN181" t="inlineStr"/>
-      <c r="AO181" t="inlineStr"/>
-      <c r="AP181" t="inlineStr"/>
-      <c r="AQ181" t="inlineStr"/>
-      <c r="AR181" t="inlineStr"/>
-      <c r="AS181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21953,8 +18712,6 @@
       <c r="L182" t="n">
         <v>34198179.29700001</v>
       </c>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -21963,20 +18720,16 @@
       <c r="P182" t="n">
         <v>1</v>
       </c>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" s="2" t="n">
+      <c r="U182" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V182" s="2" t="n">
+      <c r="V182" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W182" s="2" t="n">
+      <c r="W182" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X182" s="2" t="n">
+      <c r="X182" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y182" t="n">
@@ -21987,7 +18740,6 @@
           <t>BARILLO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
         <v>0</v>
       </c>
@@ -22024,12 +18776,6 @@
       <c r="AM182" t="n">
         <v>0</v>
       </c>
-      <c r="AN182" t="inlineStr"/>
-      <c r="AO182" t="inlineStr"/>
-      <c r="AP182" t="inlineStr"/>
-      <c r="AQ182" t="inlineStr"/>
-      <c r="AR182" t="inlineStr"/>
-      <c r="AS182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22082,8 +18828,6 @@
       <c r="L183" t="n">
         <v>2417461.96</v>
       </c>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22092,20 +18836,16 @@
       <c r="P183" t="n">
         <v>1</v>
       </c>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" s="2" t="n">
+      <c r="U183" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V183" s="2" t="n">
+      <c r="V183" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W183" s="2" t="n">
+      <c r="W183" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X183" s="2" t="n">
+      <c r="X183" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y183" t="n">
@@ -22116,7 +18856,6 @@
           <t>JGC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
         <v>0</v>
       </c>
@@ -22153,12 +18892,6 @@
       <c r="AM183" t="n">
         <v>0</v>
       </c>
-      <c r="AN183" t="inlineStr"/>
-      <c r="AO183" t="inlineStr"/>
-      <c r="AP183" t="inlineStr"/>
-      <c r="AQ183" t="inlineStr"/>
-      <c r="AR183" t="inlineStr"/>
-      <c r="AS183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22211,8 +18944,6 @@
       <c r="L184" t="n">
         <v>35596000</v>
       </c>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22221,20 +18952,16 @@
       <c r="P184" t="n">
         <v>1</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" s="2" t="n">
+      <c r="U184" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="V184" s="2" t="n">
+      <c r="V184" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="W184" s="2" t="n">
+      <c r="W184" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="X184" s="2" t="n">
+      <c r="X184" s="3" t="n">
         <v>42514</v>
       </c>
       <c r="Y184" t="n">
@@ -22245,7 +18972,6 @@
           <t>LONG ISLAND BUILDERS</t>
         </is>
       </c>
-      <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
         <v>0</v>
       </c>
@@ -22282,12 +19008,6 @@
       <c r="AM184" t="n">
         <v>0</v>
       </c>
-      <c r="AN184" t="inlineStr"/>
-      <c r="AO184" t="inlineStr"/>
-      <c r="AP184" t="inlineStr"/>
-      <c r="AQ184" t="inlineStr"/>
-      <c r="AR184" t="inlineStr"/>
-      <c r="AS184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22340,8 +19060,6 @@
       <c r="L185" t="n">
         <v>26702000</v>
       </c>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22350,20 +19068,16 @@
       <c r="P185" t="n">
         <v>1</v>
       </c>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" s="2" t="n">
+      <c r="U185" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="V185" s="2" t="n">
+      <c r="V185" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="W185" s="2" t="n">
+      <c r="W185" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="X185" s="2" t="n">
+      <c r="X185" s="3" t="n">
         <v>42514</v>
       </c>
       <c r="Y185" t="n">
@@ -22374,7 +19088,6 @@
           <t>JGC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
         <v>0</v>
       </c>
@@ -22411,12 +19124,6 @@
       <c r="AM185" t="n">
         <v>0</v>
       </c>
-      <c r="AN185" t="inlineStr"/>
-      <c r="AO185" t="inlineStr"/>
-      <c r="AP185" t="inlineStr"/>
-      <c r="AQ185" t="inlineStr"/>
-      <c r="AR185" t="inlineStr"/>
-      <c r="AS185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22469,8 +19176,6 @@
       <c r="L186" t="n">
         <v>6319337.63</v>
       </c>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22479,20 +19184,16 @@
       <c r="P186" t="n">
         <v>1</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" s="2" t="n">
+      <c r="U186" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V186" s="2" t="n">
+      <c r="V186" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W186" s="2" t="n">
+      <c r="W186" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X186" s="2" t="n">
+      <c r="X186" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y186" t="n">
@@ -22503,7 +19204,6 @@
           <t>JGC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
         <v>0</v>
       </c>
@@ -22540,12 +19240,6 @@
       <c r="AM186" t="n">
         <v>0</v>
       </c>
-      <c r="AN186" t="inlineStr"/>
-      <c r="AO186" t="inlineStr"/>
-      <c r="AP186" t="inlineStr"/>
-      <c r="AQ186" t="inlineStr"/>
-      <c r="AR186" t="inlineStr"/>
-      <c r="AS186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22598,8 +19292,6 @@
       <c r="L187" t="n">
         <v>2038606.04</v>
       </c>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22608,17 +19300,6 @@
       <c r="P187" t="n">
         <v>1</v>
       </c>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
-      <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
         <v>0</v>
       </c>
@@ -22655,12 +19336,6 @@
       <c r="AM187" t="n">
         <v>0</v>
       </c>
-      <c r="AN187" t="inlineStr"/>
-      <c r="AO187" t="inlineStr"/>
-      <c r="AP187" t="inlineStr"/>
-      <c r="AQ187" t="inlineStr"/>
-      <c r="AR187" t="inlineStr"/>
-      <c r="AS187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22713,8 +19388,6 @@
       <c r="L188" t="n">
         <v>12921310.09</v>
       </c>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22723,20 +19396,16 @@
       <c r="P188" t="n">
         <v>1</v>
       </c>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" s="2" t="n">
+      <c r="U188" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V188" s="2" t="n">
+      <c r="V188" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W188" s="2" t="n">
+      <c r="W188" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X188" s="2" t="n">
+      <c r="X188" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y188" t="n">
@@ -22747,7 +19416,6 @@
           <t>LONG ISLAND BUILDERS</t>
         </is>
       </c>
-      <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
         <v>0</v>
       </c>
@@ -22784,12 +19452,6 @@
       <c r="AM188" t="n">
         <v>0</v>
       </c>
-      <c r="AN188" t="inlineStr"/>
-      <c r="AO188" t="inlineStr"/>
-      <c r="AP188" t="inlineStr"/>
-      <c r="AQ188" t="inlineStr"/>
-      <c r="AR188" t="inlineStr"/>
-      <c r="AS188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22842,8 +19504,6 @@
       <c r="L189" t="n">
         <v>10877342.59</v>
       </c>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22852,20 +19512,16 @@
       <c r="P189" t="n">
         <v>1</v>
       </c>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" s="2" t="n">
+      <c r="U189" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V189" s="2" t="n">
+      <c r="V189" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W189" s="2" t="n">
+      <c r="W189" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X189" s="2" t="n">
+      <c r="X189" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y189" t="n">
@@ -22876,7 +19532,6 @@
           <t>HENSO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
         <v>0</v>
       </c>
@@ -22913,12 +19568,6 @@
       <c r="AM189" t="n">
         <v>0</v>
       </c>
-      <c r="AN189" t="inlineStr"/>
-      <c r="AO189" t="inlineStr"/>
-      <c r="AP189" t="inlineStr"/>
-      <c r="AQ189" t="inlineStr"/>
-      <c r="AR189" t="inlineStr"/>
-      <c r="AS189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22952,7 +19601,6 @@
       <c r="G190" t="n">
         <v>2</v>
       </c>
-      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
         <v>6</v>
       </c>
@@ -22969,8 +19617,6 @@
       <c r="L190" t="n">
         <v>8214965.06</v>
       </c>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22979,20 +19625,16 @@
       <c r="P190" t="n">
         <v>1</v>
       </c>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" s="2" t="n">
+      <c r="U190" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V190" s="2" t="n">
+      <c r="V190" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W190" s="2" t="n">
+      <c r="W190" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X190" s="2" t="n">
+      <c r="X190" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y190" t="n">
@@ -23003,7 +19645,6 @@
           <t>HENSO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
         <v>0</v>
       </c>
@@ -23040,12 +19681,6 @@
       <c r="AM190" t="n">
         <v>0</v>
       </c>
-      <c r="AN190" t="inlineStr"/>
-      <c r="AO190" t="inlineStr"/>
-      <c r="AP190" t="inlineStr"/>
-      <c r="AQ190" t="inlineStr"/>
-      <c r="AR190" t="inlineStr"/>
-      <c r="AS190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23098,8 +19733,6 @@
       <c r="L191" t="n">
         <v>2417461.96</v>
       </c>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23108,20 +19741,16 @@
       <c r="P191" t="n">
         <v>1</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" s="2" t="n">
+      <c r="U191" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V191" s="2" t="n">
+      <c r="V191" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W191" s="2" t="n">
+      <c r="W191" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X191" s="2" t="n">
+      <c r="X191" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y191" t="n">
@@ -23132,7 +19761,6 @@
           <t>JGC CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
         <v>0</v>
       </c>
@@ -23169,12 +19797,6 @@
       <c r="AM191" t="n">
         <v>0</v>
       </c>
-      <c r="AN191" t="inlineStr"/>
-      <c r="AO191" t="inlineStr"/>
-      <c r="AP191" t="inlineStr"/>
-      <c r="AQ191" t="inlineStr"/>
-      <c r="AR191" t="inlineStr"/>
-      <c r="AS191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23227,8 +19849,6 @@
       <c r="L192" t="n">
         <v>18222268.79</v>
       </c>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23237,20 +19857,16 @@
       <c r="P192" t="n">
         <v>1</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" s="2" t="n">
+      <c r="U192" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V192" s="2" t="n">
+      <c r="V192" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W192" s="2" t="n">
+      <c r="W192" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X192" s="2" t="n">
+      <c r="X192" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y192" t="n">
@@ -23261,7 +19877,6 @@
           <t>LONG ISLAND BUILDERS</t>
         </is>
       </c>
-      <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
         <v>0</v>
       </c>
@@ -23298,12 +19913,6 @@
       <c r="AM192" t="n">
         <v>0</v>
       </c>
-      <c r="AN192" t="inlineStr"/>
-      <c r="AO192" t="inlineStr"/>
-      <c r="AP192" t="inlineStr"/>
-      <c r="AQ192" t="inlineStr"/>
-      <c r="AR192" t="inlineStr"/>
-      <c r="AS192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23337,7 +19946,6 @@
       <c r="G193" t="n">
         <v>2</v>
       </c>
-      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
         <v>1</v>
       </c>
@@ -23354,8 +19962,6 @@
       <c r="L193" t="n">
         <v>1098449.69</v>
       </c>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23364,20 +19970,16 @@
       <c r="P193" t="n">
         <v>1</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" s="2" t="n">
+      <c r="U193" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V193" s="2" t="n">
+      <c r="V193" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W193" s="2" t="n">
+      <c r="W193" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X193" s="2" t="n">
+      <c r="X193" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y193" t="n">
@@ -23388,7 +19990,6 @@
           <t>GJD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
         <v>0</v>
       </c>
@@ -23425,12 +20026,6 @@
       <c r="AM193" t="n">
         <v>0</v>
       </c>
-      <c r="AN193" t="inlineStr"/>
-      <c r="AO193" t="inlineStr"/>
-      <c r="AP193" t="inlineStr"/>
-      <c r="AQ193" t="inlineStr"/>
-      <c r="AR193" t="inlineStr"/>
-      <c r="AS193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23483,8 +20078,6 @@
       <c r="L194" t="n">
         <v>12921310.09</v>
       </c>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23493,20 +20086,16 @@
       <c r="P194" t="n">
         <v>1</v>
       </c>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" s="2" t="n">
+      <c r="U194" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V194" s="2" t="n">
+      <c r="V194" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W194" s="2" t="n">
+      <c r="W194" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X194" s="2" t="n">
+      <c r="X194" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y194" t="n">
@@ -23517,7 +20106,6 @@
           <t>RUDHIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
         <v>0</v>
       </c>
@@ -23554,12 +20142,6 @@
       <c r="AM194" t="n">
         <v>0</v>
       </c>
-      <c r="AN194" t="inlineStr"/>
-      <c r="AO194" t="inlineStr"/>
-      <c r="AP194" t="inlineStr"/>
-      <c r="AQ194" t="inlineStr"/>
-      <c r="AR194" t="inlineStr"/>
-      <c r="AS194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23612,8 +20194,6 @@
       <c r="L195" t="n">
         <v>40067000</v>
       </c>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23622,20 +20202,16 @@
       <c r="P195" t="n">
         <v>1</v>
       </c>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" s="2" t="n">
+      <c r="U195" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="V195" s="2" t="n">
+      <c r="V195" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="W195" s="2" t="n">
+      <c r="W195" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="X195" s="2" t="n">
+      <c r="X195" s="3" t="n">
         <v>42514</v>
       </c>
       <c r="Y195" t="n">
@@ -23646,7 +20222,6 @@
           <t>ESR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
         <v>0</v>
       </c>
@@ -23683,12 +20258,6 @@
       <c r="AM195" t="n">
         <v>0</v>
       </c>
-      <c r="AN195" t="inlineStr"/>
-      <c r="AO195" t="inlineStr"/>
-      <c r="AP195" t="inlineStr"/>
-      <c r="AQ195" t="inlineStr"/>
-      <c r="AR195" t="inlineStr"/>
-      <c r="AS195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23741,8 +20310,6 @@
       <c r="L196" t="n">
         <v>21854685.18</v>
       </c>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23751,20 +20318,16 @@
       <c r="P196" t="n">
         <v>1</v>
       </c>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" s="2" t="n">
+      <c r="U196" s="3" t="n">
         <v>42550</v>
       </c>
-      <c r="V196" s="2" t="n">
+      <c r="V196" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W196" s="2" t="n">
+      <c r="W196" s="3" t="n">
         <v>42570</v>
       </c>
-      <c r="X196" s="2" t="n">
+      <c r="X196" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y196" t="n">
@@ -23775,7 +20338,6 @@
           <t>RUDHIL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
         <v>0</v>
       </c>
@@ -23812,12 +20374,6 @@
       <c r="AM196" t="n">
         <v>0</v>
       </c>
-      <c r="AN196" t="inlineStr"/>
-      <c r="AO196" t="inlineStr"/>
-      <c r="AP196" t="inlineStr"/>
-      <c r="AQ196" t="inlineStr"/>
-      <c r="AR196" t="inlineStr"/>
-      <c r="AS196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23870,8 +20426,6 @@
       <c r="L197" t="n">
         <v>54666806.37</v>
       </c>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -23880,20 +20434,16 @@
       <c r="P197" t="n">
         <v>1</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="inlineStr"/>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" s="2" t="n">
+      <c r="U197" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V197" s="2" t="n">
+      <c r="V197" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W197" s="2" t="n">
+      <c r="W197" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X197" s="2" t="n">
+      <c r="X197" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y197" t="n">
@@ -23904,7 +20454,6 @@
           <t>OG SANTOS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
         <v>0</v>
       </c>
@@ -23941,12 +20490,6 @@
       <c r="AM197" t="n">
         <v>0</v>
       </c>
-      <c r="AN197" t="inlineStr"/>
-      <c r="AO197" t="inlineStr"/>
-      <c r="AP197" t="inlineStr"/>
-      <c r="AQ197" t="inlineStr"/>
-      <c r="AR197" t="inlineStr"/>
-      <c r="AS197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -23999,8 +20542,6 @@
       <c r="L198" t="n">
         <v>4834923.92</v>
       </c>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24009,20 +20550,16 @@
       <c r="P198" t="n">
         <v>1</v>
       </c>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" s="2" t="n">
+      <c r="U198" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V198" s="2" t="n">
+      <c r="V198" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W198" s="2" t="n">
+      <c r="W198" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X198" s="2" t="n">
+      <c r="X198" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y198" t="n">
@@ -24033,7 +20570,6 @@
           <t>BARILLO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>0</v>
       </c>
@@ -24070,12 +20606,6 @@
       <c r="AM198" t="n">
         <v>0</v>
       </c>
-      <c r="AN198" t="inlineStr"/>
-      <c r="AO198" t="inlineStr"/>
-      <c r="AP198" t="inlineStr"/>
-      <c r="AQ198" t="inlineStr"/>
-      <c r="AR198" t="inlineStr"/>
-      <c r="AS198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24128,8 +20658,6 @@
       <c r="L199" t="n">
         <v>64149040.34999999</v>
       </c>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24138,20 +20666,16 @@
       <c r="P199" t="n">
         <v>1</v>
       </c>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="inlineStr"/>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" s="2" t="n">
+      <c r="U199" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V199" s="2" t="n">
+      <c r="V199" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W199" s="2" t="n">
+      <c r="W199" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X199" s="2" t="n">
+      <c r="X199" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y199" t="n">
@@ -24162,7 +20686,6 @@
           <t>OG SANTOS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="n">
         <v>0</v>
       </c>
@@ -24199,12 +20722,6 @@
       <c r="AM199" t="n">
         <v>0</v>
       </c>
-      <c r="AN199" t="inlineStr"/>
-      <c r="AO199" t="inlineStr"/>
-      <c r="AP199" t="inlineStr"/>
-      <c r="AQ199" t="inlineStr"/>
-      <c r="AR199" t="inlineStr"/>
-      <c r="AS199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24257,8 +20774,6 @@
       <c r="L200" t="n">
         <v>2417461.96</v>
       </c>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24267,20 +20782,16 @@
       <c r="P200" t="n">
         <v>1</v>
       </c>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="inlineStr"/>
-      <c r="T200" t="inlineStr"/>
-      <c r="U200" s="2" t="n">
+      <c r="U200" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V200" s="2" t="n">
+      <c r="V200" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W200" s="2" t="n">
+      <c r="W200" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X200" s="2" t="n">
+      <c r="X200" s="3" t="n">
         <v>42572</v>
       </c>
       <c r="Y200" t="n">
@@ -24291,7 +20802,6 @@
           <t>GJD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA200" t="inlineStr"/>
       <c r="AB200" t="n">
         <v>0</v>
       </c>
@@ -24328,12 +20838,6 @@
       <c r="AM200" t="n">
         <v>0</v>
       </c>
-      <c r="AN200" t="inlineStr"/>
-      <c r="AO200" t="inlineStr"/>
-      <c r="AP200" t="inlineStr"/>
-      <c r="AQ200" t="inlineStr"/>
-      <c r="AR200" t="inlineStr"/>
-      <c r="AS200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24386,8 +20890,6 @@
       <c r="L201" t="n">
         <v>58715432.72400001</v>
       </c>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24396,20 +20898,16 @@
       <c r="P201" t="n">
         <v>1</v>
       </c>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" s="2" t="n">
+      <c r="U201" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V201" s="2" t="n">
+      <c r="V201" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W201" s="2" t="n">
+      <c r="W201" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X201" s="2" t="n">
+      <c r="X201" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y201" t="n">
@@ -24420,7 +20918,6 @@
           <t>ESR CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA201" t="inlineStr"/>
       <c r="AB201" t="n">
         <v>0</v>
       </c>
@@ -24457,12 +20954,6 @@
       <c r="AM201" t="n">
         <v>0</v>
       </c>
-      <c r="AN201" t="inlineStr"/>
-      <c r="AO201" t="inlineStr"/>
-      <c r="AP201" t="inlineStr"/>
-      <c r="AQ201" t="inlineStr"/>
-      <c r="AR201" t="inlineStr"/>
-      <c r="AS201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24515,8 +21006,6 @@
       <c r="L202" t="n">
         <v>25542620.18</v>
       </c>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24525,20 +21014,16 @@
       <c r="P202" t="n">
         <v>1</v>
       </c>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" s="2" t="n">
+      <c r="U202" s="3" t="n">
         <v>42550</v>
       </c>
-      <c r="V202" s="2" t="n">
+      <c r="V202" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W202" s="2" t="n">
+      <c r="W202" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="X202" s="2" t="n">
+      <c r="X202" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y202" t="n">
@@ -24549,7 +21034,6 @@
           <t>LONG ISLAND BUILDERS</t>
         </is>
       </c>
-      <c r="AA202" t="inlineStr"/>
       <c r="AB202" t="n">
         <v>0</v>
       </c>
@@ -24586,12 +21070,6 @@
       <c r="AM202" t="n">
         <v>0</v>
       </c>
-      <c r="AN202" t="inlineStr"/>
-      <c r="AO202" t="inlineStr"/>
-      <c r="AP202" t="inlineStr"/>
-      <c r="AQ202" t="inlineStr"/>
-      <c r="AR202" t="inlineStr"/>
-      <c r="AS202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24625,7 +21103,6 @@
       <c r="G203" t="n">
         <v>2</v>
       </c>
-      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
         <v>9</v>
       </c>
@@ -24642,8 +21119,6 @@
       <c r="L203" t="n">
         <v>15121327.92</v>
       </c>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24652,20 +21127,16 @@
       <c r="P203" t="n">
         <v>1</v>
       </c>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
-      <c r="U203" s="2" t="n">
+      <c r="U203" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V203" s="2" t="n">
+      <c r="V203" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W203" s="2" t="n">
+      <c r="W203" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X203" s="2" t="n">
+      <c r="X203" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y203" t="n">
@@ -24676,7 +21147,6 @@
           <t>LONG ISLAND BUILDERS</t>
         </is>
       </c>
-      <c r="AA203" t="inlineStr"/>
       <c r="AB203" t="n">
         <v>0</v>
       </c>
@@ -24713,12 +21183,6 @@
       <c r="AM203" t="n">
         <v>0</v>
       </c>
-      <c r="AN203" t="inlineStr"/>
-      <c r="AO203" t="inlineStr"/>
-      <c r="AP203" t="inlineStr"/>
-      <c r="AQ203" t="inlineStr"/>
-      <c r="AR203" t="inlineStr"/>
-      <c r="AS203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24771,8 +21235,6 @@
       <c r="L204" t="n">
         <v>4834923.92</v>
       </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -24781,20 +21243,16 @@
       <c r="P204" t="n">
         <v>1</v>
       </c>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" s="2" t="n">
+      <c r="U204" s="3" t="n">
         <v>42507</v>
       </c>
-      <c r="V204" s="2" t="n">
+      <c r="V204" s="3" t="n">
         <v>42523</v>
       </c>
-      <c r="W204" s="2" t="n">
+      <c r="W204" s="3" t="n">
         <v>42549</v>
       </c>
-      <c r="X204" s="2" t="n">
+      <c r="X204" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="Y204" t="n">
@@ -24805,7 +21263,6 @@
           <t>GJD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA204" t="inlineStr"/>
       <c r="AB204" t="n">
         <v>0</v>
       </c>
@@ -24842,12 +21299,79 @@
       <c r="AM204" t="n">
         <v>0</v>
       </c>
-      <c r="AN204" t="inlineStr"/>
-      <c r="AO204" t="inlineStr"/>
-      <c r="AP204" t="inlineStr"/>
-      <c r="AQ204" t="inlineStr"/>
-      <c r="AR204" t="inlineStr"/>
-      <c r="AS204" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AT2:AT204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
